--- a/Excel文件/xiakeqian/战斗设置表.xlsx
+++ b/Excel文件/xiakeqian/战斗设置表.xlsx
@@ -16,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$2:$G$124</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet3!$A$2:$D$20</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8924" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8924" uniqueCount="760">
   <si>
     <t>#戰鬥編號</t>
   </si>
@@ -1987,38 +1987,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>647)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>747)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>548)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>649)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>644)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>347)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>554)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>555)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>34)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2253,9 +2221,6 @@
     <t>117)</t>
   </si>
   <si>
-    <t>(0,878008,647)*(0,878008,747)*(-1,878008,548)*(-1,878008,649)*(-1,878013,644)*(-1,878013,347)*(-1,878009,554)*(-1,878009,555)</t>
-  </si>
-  <si>
     <t>(0,878008,34)*(0,878008,35)*(-1,878008,36)*(-1,878008,37)*(-1,878013,42)*(-1,878013,43)*(-1,878009,45)*(-1,878009,46)</t>
   </si>
   <si>
@@ -2271,9 +2236,6 @@
     <t>(0,878013,134)*(0,878013,66)*(-1,878013,139)*(-1,878013,264)*(-1,878009,71)*(-1,878009,144)*(-1,878019,246)*(-1,878019,294)</t>
   </si>
   <si>
-    <t>(0,878013,647)*(0,878013,747)*(-1,878013,548)*(-1,878013,649)*(-1,878009,644)*(-1,878009,347)*(-1,878019,554)*(-1,878019,555)</t>
-  </si>
-  <si>
     <t>(0,878019,34)*(0,878019,35)*(-1,878019,36)*(-1,878019,37)*(-1,878009,42)*(-1,878009,43)*(-1,878094,45)*(-1,878094,46)</t>
   </si>
   <si>
@@ -2551,6 +2513,9 @@
   </si>
   <si>
     <t>(0,878376,110)*(0,878376,80)*(0,878376,109)*(0,878376,172)*(-1,878083,204)*(-1,878083,171)*(-1,878083,179)*(-1,878083,149)*(-1,878038,117)*(-1,878258,154)*(-1,878257,152)*(-1,878038,121)*(-1,878154,183)*(-1,878039,215)*(-1,878259,91)*(-1,878043,60)*(-1,878258,92)*(-1,878257,216)</t>
+  </si>
+  <si>
+    <t>(0,878008,59)*(0,878008,66)*(-1,878008,67)*(-1,878008,68)*(-1,878013,69)*(-1,878013,60)*(-1,878009,61)*(-1,878009,62)</t>
   </si>
 </sst>
 </file>
@@ -2663,7 +2628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2678,6 +2643,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4683,14 +4649,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:T124"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="4" width="9" style="2" customWidth="1"/>
+    <col min="2" max="3" width="9" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="2" customWidth="1"/>
     <col min="5" max="6" width="9" style="2"/>
     <col min="7" max="8" width="9" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
@@ -4887,13 +4854,13 @@
         <v>8700002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>669</v>
+        <v>759</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -4955,7 +4922,7 @@
         <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -5017,7 +4984,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -5079,7 +5046,7 @@
         <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -5141,7 +5108,7 @@
         <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
@@ -5203,7 +5170,7 @@
         <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
@@ -5259,13 +5226,13 @@
         <v>8700008</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>24</v>
@@ -5327,7 +5294,7 @@
         <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -5389,7 +5356,7 @@
         <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
@@ -5451,7 +5418,7 @@
         <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>24</v>
@@ -5513,7 +5480,7 @@
         <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
@@ -5575,7 +5542,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>24</v>
@@ -5637,7 +5604,7 @@
         <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>24</v>
@@ -5761,7 +5728,7 @@
         <v>44</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>24</v>
@@ -5823,7 +5790,7 @@
         <v>44</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>24</v>
@@ -5885,7 +5852,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>24</v>
@@ -5947,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>24</v>
@@ -6009,7 +5976,7 @@
         <v>44</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>24</v>
@@ -6071,7 +6038,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>24</v>
@@ -6195,7 +6162,7 @@
         <v>44</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>24</v>
@@ -6257,7 +6224,7 @@
         <v>44</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>24</v>
@@ -6319,7 +6286,7 @@
         <v>44</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>24</v>
@@ -6443,7 +6410,7 @@
         <v>44</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>24</v>
@@ -6505,7 +6472,7 @@
         <v>44</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>24</v>
@@ -6567,7 +6534,7 @@
         <v>44</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>24</v>
@@ -6691,7 +6658,7 @@
         <v>44</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>24</v>
@@ -6753,7 +6720,7 @@
         <v>44</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>24</v>
@@ -6877,7 +6844,7 @@
         <v>44</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>24</v>
@@ -7001,7 +6968,7 @@
         <v>44</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>24</v>
@@ -7063,7 +7030,7 @@
         <v>44</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>24</v>
@@ -7125,7 +7092,7 @@
         <v>44</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>24</v>
@@ -7187,7 +7154,7 @@
         <v>44</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>24</v>
@@ -7249,7 +7216,7 @@
         <v>44</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>24</v>
@@ -7311,7 +7278,7 @@
         <v>44</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>24</v>
@@ -7373,7 +7340,7 @@
         <v>44</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>24</v>
@@ -7435,7 +7402,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>24</v>
@@ -7559,7 +7526,7 @@
         <v>44</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>24</v>
@@ -7621,7 +7588,7 @@
         <v>44</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>24</v>
@@ -7683,7 +7650,7 @@
         <v>44</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>24</v>
@@ -7745,7 +7712,7 @@
         <v>44</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>24</v>
@@ -7807,7 +7774,7 @@
         <v>44</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>24</v>
@@ -7869,7 +7836,7 @@
         <v>44</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>24</v>
@@ -7931,7 +7898,7 @@
         <v>44</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>24</v>
@@ -7993,7 +7960,7 @@
         <v>44</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>24</v>
@@ -8055,7 +8022,7 @@
         <v>44</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>24</v>
@@ -8179,7 +8146,7 @@
         <v>44</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>24</v>
@@ -8241,7 +8208,7 @@
         <v>44</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>24</v>
@@ -8303,7 +8270,7 @@
         <v>44</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>24</v>
@@ -8365,7 +8332,7 @@
         <v>44</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>24</v>
@@ -8427,7 +8394,7 @@
         <v>44</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>24</v>
@@ -8489,7 +8456,7 @@
         <v>44</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>24</v>
@@ -8551,7 +8518,7 @@
         <v>44</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>24</v>
@@ -8613,7 +8580,7 @@
         <v>44</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>24</v>
@@ -8675,7 +8642,7 @@
         <v>44</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>24</v>
@@ -8737,7 +8704,7 @@
         <v>44</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>24</v>
@@ -8861,7 +8828,7 @@
         <v>44</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>24</v>
@@ -8923,7 +8890,7 @@
         <v>44</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>24</v>
@@ -8985,7 +8952,7 @@
         <v>44</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>24</v>
@@ -9047,7 +9014,7 @@
         <v>44</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>24</v>
@@ -9109,7 +9076,7 @@
         <v>44</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>24</v>
@@ -9171,7 +9138,7 @@
         <v>44</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>24</v>
@@ -9233,7 +9200,7 @@
         <v>44</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>24</v>
@@ -9295,7 +9262,7 @@
         <v>44</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>24</v>
@@ -9419,7 +9386,7 @@
         <v>44</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>24</v>
@@ -9481,7 +9448,7 @@
         <v>44</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>24</v>
@@ -9543,7 +9510,7 @@
         <v>44</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>24</v>
@@ -9605,7 +9572,7 @@
         <v>44</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>24</v>
@@ -9667,7 +9634,7 @@
         <v>44</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>24</v>
@@ -9729,7 +9696,7 @@
         <v>44</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>24</v>
@@ -9791,7 +9758,7 @@
         <v>44</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>24</v>
@@ -9853,7 +9820,7 @@
         <v>44</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>24</v>
@@ -9915,7 +9882,7 @@
         <v>44</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>24</v>
@@ -10039,7 +10006,7 @@
         <v>44</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>24</v>
@@ -10101,7 +10068,7 @@
         <v>44</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>24</v>
@@ -10163,7 +10130,7 @@
         <v>44</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>24</v>
@@ -10225,7 +10192,7 @@
         <v>44</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>24</v>
@@ -10287,7 +10254,7 @@
         <v>44</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>24</v>
@@ -10349,7 +10316,7 @@
         <v>44</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>24</v>
@@ -10411,7 +10378,7 @@
         <v>44</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>24</v>
@@ -10535,7 +10502,7 @@
         <v>44</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>24</v>
@@ -10597,7 +10564,7 @@
         <v>44</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>24</v>
@@ -10659,7 +10626,7 @@
         <v>44</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>24</v>
@@ -10721,7 +10688,7 @@
         <v>44</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>24</v>
@@ -10783,7 +10750,7 @@
         <v>44</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>24</v>
@@ -10845,7 +10812,7 @@
         <v>44</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>24</v>
@@ -10907,7 +10874,7 @@
         <v>44</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>24</v>
@@ -10969,7 +10936,7 @@
         <v>44</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>24</v>
@@ -11031,7 +10998,7 @@
         <v>44</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>24</v>
@@ -11155,7 +11122,7 @@
         <v>44</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>24</v>
@@ -11217,7 +11184,7 @@
         <v>44</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>24</v>
@@ -11279,7 +11246,7 @@
         <v>44</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>24</v>
@@ -11341,7 +11308,7 @@
         <v>44</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>24</v>
@@ -11403,7 +11370,7 @@
         <v>44</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>24</v>
@@ -11527,7 +11494,7 @@
         <v>44</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>24</v>
@@ -11589,7 +11556,7 @@
         <v>44</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>24</v>
@@ -11651,7 +11618,7 @@
         <v>44</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>24</v>
@@ -11713,7 +11680,7 @@
         <v>44</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>24</v>
@@ -11775,7 +11742,7 @@
         <v>44</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>24</v>
@@ -11899,7 +11866,7 @@
         <v>44</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>24</v>
@@ -11961,7 +11928,7 @@
         <v>44</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>24</v>
@@ -12023,7 +11990,7 @@
         <v>44</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>24</v>
@@ -12085,7 +12052,7 @@
         <v>44</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>24</v>
@@ -12147,7 +12114,7 @@
         <v>44</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>24</v>
@@ -12271,7 +12238,7 @@
         <v>44</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>24</v>
@@ -12333,7 +12300,7 @@
         <v>44</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>24</v>
@@ -40585,8 +40552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CH424"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C124"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -40775,1383 +40742,1383 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:86">
-      <c r="A4" s="1">
+    <row r="4" spans="1:86" s="14" customFormat="1">
+      <c r="A4" s="14">
         <v>8700002</v>
       </c>
-      <c r="B4" t="s">
-        <v>557</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B4" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>759</v>
+      </c>
+      <c r="D4" s="14">
         <v>8</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="14">
         <f t="shared" ref="E4:E67" si="0">F4+G4</f>
         <v>8</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="14">
         <v>2</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="14">
         <v>6</v>
       </c>
-      <c r="I4" s="1" t="str">
+      <c r="I4" s="14" t="str">
         <f t="shared" ref="I4:I15" si="1">L4&amp;","&amp;M4&amp;","&amp;N4&amp;"*"&amp;P4&amp;","&amp;Q4&amp;","&amp;R4&amp;"*"&amp;T4&amp;","&amp;U4&amp;","&amp;V4&amp;"*"&amp;X4&amp;","&amp;Y4&amp;","&amp;Z4&amp;"*"&amp;AB4&amp;","&amp;AC4&amp;","&amp;AD4&amp;"*"&amp;AF4&amp;","&amp;AG4&amp;","&amp;AH4&amp;"*"&amp;AJ4&amp;","&amp;AK4&amp;","&amp;AL4&amp;"*"&amp;AN4&amp;","&amp;AO4&amp;","&amp;AP4</f>
-        <v>(0,878008,647)*(0,878008,747)*(-1,878008,548)*(-1,878008,649)*(-1,878013,644)*(-1,878013,347)*(-1,878009,554)*(-1,878009,555)</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4">
+        <v>(0,878008,59)*(0,878008,66)*(-1,878008,67)*(-1,878008,68)*(-1,878013,69)*(-1,878013,60)*(-1,878009,61)*(-1,878009,62)</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="13">
         <v>878008</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="O4" s="1" t="str">
+      <c r="N4" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="O4" s="14" t="str">
         <f t="shared" ref="O4:O67" si="2">VLOOKUP(M4,$CG$2:$CH$424,2,FALSE)</f>
         <v>倭寇</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4">
+      <c r="P4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="13">
         <v>878008</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="S4" s="1" t="str">
+      <c r="R4" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="S4" s="14" t="str">
         <f t="shared" ref="S4:S67" si="3">VLOOKUP(Q4,$CG$2:$CH$424,2,FALSE)</f>
         <v>倭寇</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="U4">
+      <c r="T4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" s="13">
         <v>878008</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="W4" s="1" t="str">
+      <c r="V4" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="W4" s="14" t="str">
         <f t="shared" ref="W4:W67" si="4">VLOOKUP(U4,$CG$2:$CH$424,2,FALSE)</f>
         <v>倭寇</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y4">
+      <c r="X4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y4" s="13">
         <v>878008</v>
       </c>
-      <c r="Z4" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="AA4" s="1" t="str">
+      <c r="Z4" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="AA4" s="14" t="str">
         <f t="shared" ref="AA4:AA67" si="5">VLOOKUP(Y4,$CG$2:$CH$424,2,FALSE)</f>
         <v>倭寇</v>
       </c>
-      <c r="AB4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC4">
+      <c r="AB4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC4" s="13">
         <v>878013</v>
       </c>
-      <c r="AD4" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="AE4" s="1" t="str">
+      <c r="AD4" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="AE4" s="14" t="str">
         <f t="shared" ref="AE4:AE67" si="6">VLOOKUP(AC4,$CG$2:$CH$424,2,FALSE)</f>
         <v>黑冢忍者</v>
       </c>
-      <c r="AF4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG4">
+      <c r="AF4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG4" s="13">
         <v>878013</v>
       </c>
-      <c r="AH4" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="AI4" s="1" t="str">
+      <c r="AH4" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="AI4" s="14" t="str">
         <f t="shared" ref="AI4:AI67" si="7">VLOOKUP(AG4,$CG$2:$CH$424,2,FALSE)</f>
         <v>黑冢忍者</v>
       </c>
-      <c r="AJ4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK4">
+      <c r="AJ4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK4" s="13">
         <v>878009</v>
       </c>
-      <c r="AL4" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="AM4" s="1" t="str">
+      <c r="AL4" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="AM4" s="14" t="str">
         <f t="shared" ref="AM4:AM67" si="8">VLOOKUP(AK4,$CG$2:$CH$424,2,FALSE)</f>
         <v>倭寇组长</v>
       </c>
-      <c r="AN4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO4">
+      <c r="AN4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO4" s="13">
         <v>878009</v>
       </c>
-      <c r="AP4" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="AQ4" s="1" t="str">
+      <c r="AP4" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="AQ4" s="14" t="str">
         <f t="shared" ref="AQ4:AQ67" si="9">VLOOKUP(AO4,$CG$2:$CH$424,2,FALSE)</f>
         <v>倭寇组长</v>
       </c>
-      <c r="CG4" s="1">
+      <c r="CG4" s="14">
         <v>200022</v>
       </c>
-      <c r="CH4" s="1" t="s">
+      <c r="CH4" s="14" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:86">
-      <c r="A5" s="1">
+    <row r="5" spans="1:86" s="14" customFormat="1">
+      <c r="A5" s="14">
         <v>8700003</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="13" t="s">
         <v>552</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="D5" s="14">
         <v>8</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="14">
         <v>2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="14">
         <v>6</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="14" t="str">
         <f t="shared" si="1"/>
         <v>(0,878008,34)*(0,878008,35)*(-1,878008,36)*(-1,878008,37)*(-1,878013,42)*(-1,878013,43)*(-1,878009,45)*(-1,878009,46)</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5">
+      <c r="L5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="13">
         <v>878008</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="O5" s="1" t="str">
+      <c r="N5" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="O5" s="14" t="str">
         <f t="shared" si="2"/>
         <v>倭寇</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5">
+      <c r="P5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="13">
         <v>878008</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="S5" s="1" t="str">
+      <c r="R5" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="S5" s="14" t="str">
         <f t="shared" si="3"/>
         <v>倭寇</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="U5">
+      <c r="T5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="U5" s="13">
         <v>878008</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="W5" s="1" t="str">
+      <c r="W5" s="14" t="str">
         <f t="shared" si="4"/>
         <v>倭寇</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y5">
+      <c r="X5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y5" s="13">
         <v>878008</v>
       </c>
-      <c r="Z5" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="AA5" s="1" t="str">
+      <c r="Z5" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="AA5" s="14" t="str">
         <f t="shared" si="5"/>
         <v>倭寇</v>
       </c>
-      <c r="AB5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC5">
+      <c r="AB5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC5" s="13">
         <v>878013</v>
       </c>
-      <c r="AD5" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="AE5" s="1" t="str">
+      <c r="AD5" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE5" s="14" t="str">
         <f t="shared" si="6"/>
         <v>黑冢忍者</v>
       </c>
-      <c r="AF5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG5">
+      <c r="AF5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG5" s="13">
         <v>878013</v>
       </c>
-      <c r="AH5" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="AI5" s="1" t="str">
+      <c r="AH5" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="AI5" s="14" t="str">
         <f t="shared" si="7"/>
         <v>黑冢忍者</v>
       </c>
-      <c r="AJ5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK5">
+      <c r="AJ5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK5" s="13">
         <v>878009</v>
       </c>
-      <c r="AL5" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="AM5" s="1" t="str">
+      <c r="AL5" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="AM5" s="14" t="str">
         <f t="shared" si="8"/>
         <v>倭寇组长</v>
       </c>
-      <c r="AN5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO5">
+      <c r="AN5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO5" s="13">
         <v>878009</v>
       </c>
-      <c r="AP5" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="AQ5" s="1" t="str">
+      <c r="AP5" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="AQ5" s="14" t="str">
         <f t="shared" si="9"/>
         <v>倭寇组长</v>
       </c>
-      <c r="CG5" s="1">
+      <c r="CG5" s="14">
         <v>200039</v>
       </c>
-      <c r="CH5" s="1" t="s">
+      <c r="CH5" s="14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:86">
-      <c r="A6" s="1">
+    <row r="6" spans="1:86" s="14" customFormat="1">
+      <c r="A6" s="14">
         <v>8700004</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="13" t="s">
         <v>556</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="D6" s="14">
         <v>8</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="14">
         <v>2</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="14">
         <v>6</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="I6" s="14" t="str">
         <f t="shared" si="1"/>
         <v>(0,878008,31)*(0,878008,32)*(-1,878008,33)*(-1,878008,42)*(-1,878013,50)*(-1,878013,53)*(-1,878009,61)*(-1,878009,70)</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6">
+      <c r="L6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="13">
         <v>878008</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="O6" s="1" t="str">
+      <c r="N6" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="O6" s="14" t="str">
         <f t="shared" si="2"/>
         <v>倭寇</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q6">
+      <c r="P6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="13">
         <v>878008</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="S6" s="1" t="str">
+      <c r="R6" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="S6" s="14" t="str">
         <f t="shared" si="3"/>
         <v>倭寇</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="U6">
+      <c r="T6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="U6" s="13">
         <v>878008</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="W6" s="1" t="str">
+      <c r="V6" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="W6" s="14" t="str">
         <f t="shared" si="4"/>
         <v>倭寇</v>
       </c>
-      <c r="X6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y6">
+      <c r="X6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y6" s="13">
         <v>878008</v>
       </c>
-      <c r="Z6" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="AA6" s="1" t="str">
+      <c r="Z6" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="AA6" s="14" t="str">
         <f t="shared" si="5"/>
         <v>倭寇</v>
       </c>
-      <c r="AB6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC6">
+      <c r="AB6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="13">
         <v>878013</v>
       </c>
-      <c r="AD6" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="AE6" s="1" t="str">
+      <c r="AD6" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="AE6" s="14" t="str">
         <f t="shared" si="6"/>
         <v>黑冢忍者</v>
       </c>
-      <c r="AF6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG6">
+      <c r="AF6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG6" s="13">
         <v>878013</v>
       </c>
-      <c r="AH6" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="AI6" s="1" t="str">
+      <c r="AH6" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="AI6" s="14" t="str">
         <f t="shared" si="7"/>
         <v>黑冢忍者</v>
       </c>
-      <c r="AJ6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK6">
+      <c r="AJ6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK6" s="13">
         <v>878009</v>
       </c>
-      <c r="AL6" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="AM6" s="1" t="str">
+      <c r="AL6" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="AM6" s="14" t="str">
         <f t="shared" si="8"/>
         <v>倭寇组长</v>
       </c>
-      <c r="AN6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO6">
+      <c r="AN6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO6" s="13">
         <v>878009</v>
       </c>
-      <c r="AP6" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="AQ6" s="1" t="str">
+      <c r="AP6" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="AQ6" s="14" t="str">
         <f t="shared" si="9"/>
         <v>倭寇组长</v>
       </c>
-      <c r="CG6" s="1">
+      <c r="CG6" s="14">
         <v>200044</v>
       </c>
-      <c r="CH6" s="1" t="s">
+      <c r="CH6" s="14" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:86">
-      <c r="A7" s="1">
+    <row r="7" spans="1:86" s="14" customFormat="1">
+      <c r="A7" s="14">
         <v>8700005</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="D7" s="14">
         <v>8</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="14">
         <v>2</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="14">
         <v>6</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="I7" s="14" t="str">
         <f t="shared" si="1"/>
         <v>(0,878013,59)*(0,878013,66)*(-1,878013,67)*(-1,878013,68)*(-1,878009,69)*(-1,878009,60)*(-1,878019,61)*(-1,878019,62)</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7">
+      <c r="L7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="13">
         <v>878013</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="O7" s="1" t="str">
+      <c r="N7" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="O7" s="14" t="str">
         <f t="shared" si="2"/>
         <v>黑冢忍者</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q7">
+      <c r="P7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="13">
         <v>878013</v>
       </c>
-      <c r="R7" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="S7" s="1" t="str">
+      <c r="R7" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="S7" s="14" t="str">
         <f t="shared" si="3"/>
         <v>黑冢忍者</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="U7">
+      <c r="T7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="U7" s="13">
         <v>878013</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="V7" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="W7" s="1" t="str">
+      <c r="W7" s="14" t="str">
         <f t="shared" si="4"/>
         <v>黑冢忍者</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y7">
+      <c r="X7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y7" s="13">
         <v>878013</v>
       </c>
-      <c r="Z7" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="AA7" s="1" t="str">
+      <c r="Z7" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="AA7" s="14" t="str">
         <f t="shared" si="5"/>
         <v>黑冢忍者</v>
       </c>
-      <c r="AB7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC7">
+      <c r="AB7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC7" s="13">
         <v>878009</v>
       </c>
-      <c r="AD7" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="AE7" s="1" t="str">
+      <c r="AD7" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="AE7" s="14" t="str">
         <f t="shared" si="6"/>
         <v>倭寇组长</v>
       </c>
-      <c r="AF7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG7">
+      <c r="AF7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG7" s="13">
         <v>878009</v>
       </c>
-      <c r="AH7" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="AI7" s="1" t="str">
+      <c r="AH7" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="AI7" s="14" t="str">
         <f t="shared" si="7"/>
         <v>倭寇组长</v>
       </c>
-      <c r="AJ7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK7">
+      <c r="AJ7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK7" s="13">
         <v>878019</v>
       </c>
-      <c r="AL7" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="AM7" s="1" t="str">
+      <c r="AL7" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="AM7" s="14" t="str">
         <f t="shared" si="8"/>
         <v>黑冢中忍</v>
       </c>
-      <c r="AN7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO7">
+      <c r="AN7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO7" s="13">
         <v>878019</v>
       </c>
-      <c r="AP7" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="AQ7" s="1" t="str">
+      <c r="AP7" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="AQ7" s="14" t="str">
         <f t="shared" si="9"/>
         <v>黑冢中忍</v>
       </c>
-      <c r="CG7" s="1">
+      <c r="CG7" s="14">
         <v>210048</v>
       </c>
-      <c r="CH7" s="1" t="s">
+      <c r="CH7" s="14" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:86">
-      <c r="A8" s="1">
+    <row r="8" spans="1:86" s="14" customFormat="1">
+      <c r="A8" s="14">
         <v>8700006</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="D8" s="14">
         <v>8</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="14">
         <v>2</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="14">
         <v>6</v>
       </c>
-      <c r="I8" s="1" t="str">
+      <c r="I8" s="14" t="str">
         <f t="shared" si="1"/>
         <v>(0,878013,92)*(0,878013,90)*(-1,878013,80)*(-1,878013,78)*(-1,878009,98)*(-1,878009,81)*(-1,878019,87)*(-1,878019,27)</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8">
+      <c r="L8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="13">
         <v>878013</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="O8" s="1" t="str">
+      <c r="N8" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="O8" s="14" t="str">
         <f t="shared" si="2"/>
         <v>黑冢忍者</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q8">
+      <c r="P8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="13">
         <v>878013</v>
       </c>
-      <c r="R8" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="S8" s="1" t="str">
+      <c r="R8" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="S8" s="14" t="str">
         <f t="shared" si="3"/>
         <v>黑冢忍者</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="U8">
+      <c r="T8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="U8" s="13">
         <v>878013</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="W8" s="1" t="str">
+      <c r="V8" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="W8" s="14" t="str">
         <f t="shared" si="4"/>
         <v>黑冢忍者</v>
       </c>
-      <c r="X8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y8">
+      <c r="X8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y8" s="13">
         <v>878013</v>
       </c>
-      <c r="Z8" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="AA8" s="1" t="str">
+      <c r="Z8" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="AA8" s="14" t="str">
         <f t="shared" si="5"/>
         <v>黑冢忍者</v>
       </c>
-      <c r="AB8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC8">
+      <c r="AB8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC8" s="13">
         <v>878009</v>
       </c>
-      <c r="AD8" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="AE8" s="1" t="str">
+      <c r="AD8" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="AE8" s="14" t="str">
         <f t="shared" si="6"/>
         <v>倭寇组长</v>
       </c>
-      <c r="AF8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG8">
+      <c r="AF8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG8" s="13">
         <v>878009</v>
       </c>
-      <c r="AH8" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="AI8" s="1" t="str">
+      <c r="AH8" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="AI8" s="14" t="str">
         <f t="shared" si="7"/>
         <v>倭寇组长</v>
       </c>
-      <c r="AJ8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK8">
+      <c r="AJ8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK8" s="13">
         <v>878019</v>
       </c>
-      <c r="AL8" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="AM8" s="1" t="str">
+      <c r="AL8" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="AM8" s="14" t="str">
         <f t="shared" si="8"/>
         <v>黑冢中忍</v>
       </c>
-      <c r="AN8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO8">
+      <c r="AN8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO8" s="13">
         <v>878019</v>
       </c>
-      <c r="AP8" s="1" t="s">
+      <c r="AP8" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="AQ8" s="1" t="str">
+      <c r="AQ8" s="14" t="str">
         <f t="shared" si="9"/>
         <v>黑冢中忍</v>
       </c>
-      <c r="CG8" s="1">
+      <c r="CG8" s="14">
         <v>800035</v>
       </c>
-      <c r="CH8" s="1" t="s">
+      <c r="CH8" s="14" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:86">
-      <c r="A9" s="1">
+    <row r="9" spans="1:86" s="14" customFormat="1">
+      <c r="A9" s="14">
         <v>8700007</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="D9" s="14">
         <v>8</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="14">
         <v>2</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="14">
         <v>6</v>
       </c>
-      <c r="I9" s="1" t="str">
+      <c r="I9" s="14" t="str">
         <f t="shared" si="1"/>
         <v>(0,878013,134)*(0,878013,66)*(-1,878013,139)*(-1,878013,264)*(-1,878009,71)*(-1,878009,144)*(-1,878019,246)*(-1,878019,294)</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9">
+      <c r="L9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="13">
         <v>878013</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="O9" s="1" t="str">
+      <c r="O9" s="14" t="str">
         <f t="shared" si="2"/>
         <v>黑冢忍者</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q9">
+      <c r="P9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="13">
         <v>878013</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="S9" s="1" t="str">
+      <c r="S9" s="14" t="str">
         <f t="shared" si="3"/>
         <v>黑冢忍者</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="U9">
+      <c r="T9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="U9" s="13">
         <v>878013</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="V9" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="W9" s="1" t="str">
+      <c r="W9" s="14" t="str">
         <f t="shared" si="4"/>
         <v>黑冢忍者</v>
       </c>
-      <c r="X9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y9">
+      <c r="X9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y9" s="13">
         <v>878013</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="Z9" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="AA9" s="1" t="str">
+      <c r="AA9" s="14" t="str">
         <f t="shared" si="5"/>
         <v>黑冢忍者</v>
       </c>
-      <c r="AB9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC9">
+      <c r="AB9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC9" s="13">
         <v>878009</v>
       </c>
-      <c r="AD9" s="1" t="s">
+      <c r="AD9" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="AE9" s="1" t="str">
+      <c r="AE9" s="14" t="str">
         <f t="shared" si="6"/>
         <v>倭寇组长</v>
       </c>
-      <c r="AF9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG9">
+      <c r="AF9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG9" s="13">
         <v>878009</v>
       </c>
-      <c r="AH9" s="1" t="s">
+      <c r="AH9" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="AI9" s="1" t="str">
+      <c r="AI9" s="14" t="str">
         <f t="shared" si="7"/>
         <v>倭寇组长</v>
       </c>
-      <c r="AJ9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK9">
+      <c r="AJ9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK9" s="13">
         <v>878019</v>
       </c>
-      <c r="AL9" s="1" t="s">
+      <c r="AL9" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AM9" s="1" t="str">
+      <c r="AM9" s="14" t="str">
         <f t="shared" si="8"/>
         <v>黑冢中忍</v>
       </c>
-      <c r="AN9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO9">
+      <c r="AN9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO9" s="13">
         <v>878019</v>
       </c>
-      <c r="AP9" s="1" t="s">
+      <c r="AP9" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AQ9" s="1" t="str">
+      <c r="AQ9" s="14" t="str">
         <f t="shared" si="9"/>
         <v>黑冢中忍</v>
       </c>
-      <c r="CG9" s="1">
+      <c r="CG9" s="14">
         <v>800092</v>
       </c>
-      <c r="CH9" s="1" t="s">
+      <c r="CH9" s="14" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:86">
-      <c r="A10" s="1">
+    <row r="10" spans="1:86" s="14" customFormat="1">
+      <c r="A10" s="14">
         <v>8700008</v>
       </c>
-      <c r="B10" t="s">
-        <v>557</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="B10" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="D10" s="14">
         <v>8</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="14">
         <v>2</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="14">
         <v>6</v>
       </c>
-      <c r="I10" s="1" t="str">
+      <c r="I10" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(0,878013,647)*(0,878013,747)*(-1,878013,548)*(-1,878013,649)*(-1,878009,644)*(-1,878009,347)*(-1,878019,554)*(-1,878019,555)</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10">
+        <v>(0,878013,59)*(0,878013,66)*(-1,878013,67)*(-1,878013,68)*(-1,878009,69)*(-1,878009,60)*(-1,878019,61)*(-1,878019,62)</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="13">
         <v>878013</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="O10" s="1" t="str">
+      <c r="N10" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="O10" s="14" t="str">
         <f t="shared" si="2"/>
         <v>黑冢忍者</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q10">
+      <c r="P10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="13">
         <v>878013</v>
       </c>
-      <c r="R10" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="S10" s="1" t="str">
+      <c r="R10" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="S10" s="14" t="str">
         <f t="shared" si="3"/>
         <v>黑冢忍者</v>
       </c>
-      <c r="T10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="U10">
+      <c r="T10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="U10" s="13">
         <v>878013</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="W10" s="1" t="str">
+      <c r="V10" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="W10" s="14" t="str">
         <f t="shared" si="4"/>
         <v>黑冢忍者</v>
       </c>
-      <c r="X10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y10">
+      <c r="X10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y10" s="13">
         <v>878013</v>
       </c>
-      <c r="Z10" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="AA10" s="1" t="str">
+      <c r="Z10" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="AA10" s="14" t="str">
         <f t="shared" si="5"/>
         <v>黑冢忍者</v>
       </c>
-      <c r="AB10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC10">
+      <c r="AB10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC10" s="13">
         <v>878009</v>
       </c>
-      <c r="AD10" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="AE10" s="1" t="str">
+      <c r="AD10" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="AE10" s="14" t="str">
         <f t="shared" si="6"/>
         <v>倭寇组长</v>
       </c>
-      <c r="AF10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG10">
+      <c r="AF10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG10" s="13">
         <v>878009</v>
       </c>
-      <c r="AH10" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="AI10" s="1" t="str">
+      <c r="AH10" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="AI10" s="14" t="str">
         <f t="shared" si="7"/>
         <v>倭寇组长</v>
       </c>
-      <c r="AJ10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK10">
+      <c r="AJ10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK10" s="13">
         <v>878019</v>
       </c>
-      <c r="AL10" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="AM10" s="1" t="str">
+      <c r="AL10" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="AM10" s="14" t="str">
         <f t="shared" si="8"/>
         <v>黑冢中忍</v>
       </c>
-      <c r="AN10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO10">
+      <c r="AN10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO10" s="13">
         <v>878019</v>
       </c>
-      <c r="AP10" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="AQ10" s="1" t="str">
+      <c r="AP10" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="AQ10" s="14" t="str">
         <f t="shared" si="9"/>
         <v>黑冢中忍</v>
       </c>
-      <c r="CG10" s="1">
+      <c r="CG10" s="14">
         <v>877001</v>
       </c>
-      <c r="CH10" s="1" t="s">
+      <c r="CH10" s="14" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:86">
-      <c r="A11" s="1">
+    <row r="11" spans="1:86" s="14" customFormat="1">
+      <c r="A11" s="14">
         <v>8700009</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="13" t="s">
         <v>552</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="D11" s="14">
         <v>8</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="14">
         <v>2</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="14">
         <v>6</v>
       </c>
-      <c r="I11" s="1" t="str">
+      <c r="I11" s="14" t="str">
         <f t="shared" si="1"/>
         <v>(0,878019,34)*(0,878019,35)*(-1,878019,36)*(-1,878019,37)*(-1,878009,42)*(-1,878009,43)*(-1,878094,45)*(-1,878094,46)</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M11">
+      <c r="L11" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="13">
         <v>878019</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="O11" s="1" t="str">
+      <c r="N11" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="O11" s="14" t="str">
         <f t="shared" si="2"/>
         <v>黑冢中忍</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q11">
+      <c r="P11" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="13">
         <v>878019</v>
       </c>
-      <c r="R11" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="S11" s="1" t="str">
+      <c r="R11" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="S11" s="14" t="str">
         <f t="shared" si="3"/>
         <v>黑冢中忍</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="U11">
+      <c r="T11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="U11" s="13">
         <v>878019</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="V11" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="W11" s="1" t="str">
+      <c r="W11" s="14" t="str">
         <f t="shared" si="4"/>
         <v>黑冢中忍</v>
       </c>
-      <c r="X11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y11">
+      <c r="X11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y11" s="13">
         <v>878019</v>
       </c>
-      <c r="Z11" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="AA11" s="1" t="str">
+      <c r="Z11" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="AA11" s="14" t="str">
         <f t="shared" si="5"/>
         <v>黑冢中忍</v>
       </c>
-      <c r="AB11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC11">
+      <c r="AB11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC11" s="13">
         <v>878009</v>
       </c>
-      <c r="AD11" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="AE11" s="1" t="str">
+      <c r="AD11" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE11" s="14" t="str">
         <f t="shared" si="6"/>
         <v>倭寇组长</v>
       </c>
-      <c r="AF11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG11">
+      <c r="AF11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG11" s="13">
         <v>878009</v>
       </c>
-      <c r="AH11" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="AI11" s="1" t="str">
+      <c r="AH11" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="AI11" s="14" t="str">
         <f t="shared" si="7"/>
         <v>倭寇组长</v>
       </c>
-      <c r="AJ11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK11">
+      <c r="AJ11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK11" s="13">
         <v>878094</v>
       </c>
-      <c r="AL11" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="AM11" s="1" t="str">
+      <c r="AL11" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="AM11" s="14" t="str">
         <f t="shared" si="8"/>
         <v>黑冢上忍</v>
       </c>
-      <c r="AN11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO11">
+      <c r="AN11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO11" s="13">
         <v>878094</v>
       </c>
-      <c r="AP11" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="AQ11" s="1" t="str">
+      <c r="AP11" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="AQ11" s="14" t="str">
         <f t="shared" si="9"/>
         <v>黑冢上忍</v>
       </c>
-      <c r="CG11" s="1">
+      <c r="CG11" s="14">
         <v>877002</v>
       </c>
-      <c r="CH11" s="1" t="s">
+      <c r="CH11" s="14" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:86">
-      <c r="A12" s="1">
+    <row r="12" spans="1:86" s="14" customFormat="1">
+      <c r="A12" s="14">
         <v>8700010</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="13" t="s">
         <v>556</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="D12" s="14">
         <v>8</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="14">
         <v>2</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="14">
         <v>6</v>
       </c>
-      <c r="I12" s="1" t="str">
+      <c r="I12" s="14" t="str">
         <f t="shared" si="1"/>
         <v>(0,878019,31)*(0,878019,32)*(-1,878019,33)*(-1,878019,42)*(-1,878009,50)*(-1,878009,53)*(-1,878094,61)*(-1,878094,70)</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M12">
+      <c r="L12" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="13">
         <v>878019</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="O12" s="1" t="str">
+      <c r="N12" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="O12" s="14" t="str">
         <f t="shared" si="2"/>
         <v>黑冢中忍</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q12">
+      <c r="P12" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q12" s="13">
         <v>878019</v>
       </c>
-      <c r="R12" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="S12" s="1" t="str">
+      <c r="R12" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="S12" s="14" t="str">
         <f t="shared" si="3"/>
         <v>黑冢中忍</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="U12">
+      <c r="T12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="U12" s="13">
         <v>878019</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="W12" s="1" t="str">
+      <c r="V12" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="W12" s="14" t="str">
         <f t="shared" si="4"/>
         <v>黑冢中忍</v>
       </c>
-      <c r="X12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y12">
+      <c r="X12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y12" s="13">
         <v>878019</v>
       </c>
-      <c r="Z12" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="AA12" s="1" t="str">
+      <c r="Z12" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="AA12" s="14" t="str">
         <f t="shared" si="5"/>
         <v>黑冢中忍</v>
       </c>
-      <c r="AB12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC12">
+      <c r="AB12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC12" s="13">
         <v>878009</v>
       </c>
-      <c r="AD12" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="AE12" s="1" t="str">
+      <c r="AD12" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="AE12" s="14" t="str">
         <f t="shared" si="6"/>
         <v>倭寇组长</v>
       </c>
-      <c r="AF12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG12">
+      <c r="AF12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG12" s="13">
         <v>878009</v>
       </c>
-      <c r="AH12" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="AI12" s="1" t="str">
+      <c r="AH12" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="AI12" s="14" t="str">
         <f t="shared" si="7"/>
         <v>倭寇组长</v>
       </c>
-      <c r="AJ12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK12">
+      <c r="AJ12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK12" s="13">
         <v>878094</v>
       </c>
-      <c r="AL12" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="AM12" s="1" t="str">
+      <c r="AL12" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="AM12" s="14" t="str">
         <f t="shared" si="8"/>
         <v>黑冢上忍</v>
       </c>
-      <c r="AN12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO12">
+      <c r="AN12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO12" s="13">
         <v>878094</v>
       </c>
-      <c r="AP12" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="AQ12" s="1" t="str">
+      <c r="AP12" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="AQ12" s="14" t="str">
         <f t="shared" si="9"/>
         <v>黑冢上忍</v>
       </c>
-      <c r="CG12" s="1">
+      <c r="CG12" s="14">
         <v>877003</v>
       </c>
-      <c r="CH12" s="1" t="s">
+      <c r="CH12" s="14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="1:86">
-      <c r="A13" s="1">
+    <row r="13" spans="1:86" s="14" customFormat="1">
+      <c r="A13" s="14">
         <v>8700011</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="D13" s="14">
         <v>8</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="14">
         <v>2</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="14">
         <v>6</v>
       </c>
-      <c r="I13" s="1" t="str">
+      <c r="I13" s="14" t="str">
         <f t="shared" si="1"/>
         <v>(0,878019,59)*(0,878019,66)*(-1,878019,67)*(-1,878019,68)*(-1,878009,69)*(-1,878009,60)*(-1,878094,61)*(-1,878094,62)</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M13">
+      <c r="L13" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="13">
         <v>878019</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="O13" s="1" t="str">
+      <c r="N13" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="O13" s="14" t="str">
         <f t="shared" si="2"/>
         <v>黑冢中忍</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q13">
+      <c r="P13" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="13">
         <v>878019</v>
       </c>
-      <c r="R13" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="S13" s="1" t="str">
+      <c r="R13" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="S13" s="14" t="str">
         <f t="shared" si="3"/>
         <v>黑冢中忍</v>
       </c>
-      <c r="T13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="U13">
+      <c r="T13" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="U13" s="13">
         <v>878019</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="V13" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="W13" s="1" t="str">
+      <c r="W13" s="14" t="str">
         <f t="shared" si="4"/>
         <v>黑冢中忍</v>
       </c>
-      <c r="X13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y13">
+      <c r="X13" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y13" s="13">
         <v>878019</v>
       </c>
-      <c r="Z13" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="AA13" s="1" t="str">
+      <c r="Z13" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="AA13" s="14" t="str">
         <f t="shared" si="5"/>
         <v>黑冢中忍</v>
       </c>
-      <c r="AB13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC13">
+      <c r="AB13" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC13" s="13">
         <v>878009</v>
       </c>
-      <c r="AD13" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="AE13" s="1" t="str">
+      <c r="AD13" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="AE13" s="14" t="str">
         <f t="shared" si="6"/>
         <v>倭寇组长</v>
       </c>
-      <c r="AF13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG13">
+      <c r="AF13" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG13" s="13">
         <v>878009</v>
       </c>
-      <c r="AH13" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="AI13" s="1" t="str">
+      <c r="AH13" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="AI13" s="14" t="str">
         <f t="shared" si="7"/>
         <v>倭寇组长</v>
       </c>
-      <c r="AJ13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK13">
+      <c r="AJ13" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK13" s="13">
         <v>878094</v>
       </c>
-      <c r="AL13" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="AM13" s="1" t="str">
+      <c r="AL13" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="AM13" s="14" t="str">
         <f t="shared" si="8"/>
         <v>黑冢上忍</v>
       </c>
-      <c r="AN13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO13">
+      <c r="AN13" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO13" s="13">
         <v>878094</v>
       </c>
-      <c r="AP13" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="AQ13" s="1" t="str">
+      <c r="AP13" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="AQ13" s="14" t="str">
         <f t="shared" si="9"/>
         <v>黑冢上忍</v>
       </c>
-      <c r="CG13" s="1">
+      <c r="CG13" s="14">
         <v>877004</v>
       </c>
-      <c r="CH13" s="1" t="s">
+      <c r="CH13" s="14" t="s">
         <v>207</v>
       </c>
     </row>
@@ -42163,7 +42130,7 @@
         <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="D14" s="1">
         <v>8</v>
@@ -42189,7 +42156,7 @@
         <v>878019</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="O14" s="1" t="str">
         <f t="shared" si="2"/>
@@ -42202,7 +42169,7 @@
         <v>878019</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="S14" s="1" t="str">
         <f t="shared" si="3"/>
@@ -42215,7 +42182,7 @@
         <v>878019</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="W14" s="1" t="str">
         <f t="shared" si="4"/>
@@ -42228,7 +42195,7 @@
         <v>878019</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="AA14" s="1" t="str">
         <f t="shared" si="5"/>
@@ -42241,7 +42208,7 @@
         <v>878009</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="AE14" s="1" t="str">
         <f t="shared" si="6"/>
@@ -42254,7 +42221,7 @@
         <v>878009</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="AI14" s="1" t="str">
         <f t="shared" si="7"/>
@@ -42267,7 +42234,7 @@
         <v>878094</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="AM14" s="1" t="str">
         <f t="shared" si="8"/>
@@ -42301,7 +42268,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="D15" s="1">
         <v>8</v>
@@ -42439,7 +42406,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="D16" s="4">
         <v>10</v>
@@ -42767,7 +42734,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="D18" s="1">
         <v>10</v>
@@ -42858,7 +42825,7 @@
         <v>878218</v>
       </c>
       <c r="AH18" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="AI18" s="1" t="str">
         <f t="shared" si="7"/>
@@ -42931,7 +42898,7 @@
         <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="D19" s="1">
         <v>10</v>
@@ -43074,7 +43041,7 @@
         <v>878014</v>
       </c>
       <c r="AX19" s="1" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="AY19" s="1" t="str">
         <f t="shared" si="11"/>
@@ -43095,7 +43062,7 @@
         <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="D20" s="1">
         <v>10</v>
@@ -43238,7 +43205,7 @@
         <v>878014</v>
       </c>
       <c r="AX20" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="AY20" s="1" t="str">
         <f t="shared" si="11"/>
@@ -43259,7 +43226,7 @@
         <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="D21" s="1">
         <v>10</v>
@@ -43423,7 +43390,7 @@
         <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="D22" s="1">
         <v>10</v>
@@ -43566,7 +43533,7 @@
         <v>878021</v>
       </c>
       <c r="AX22" s="1" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="AY22" s="1" t="str">
         <f t="shared" si="11"/>
@@ -43587,7 +43554,7 @@
         <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="D23" s="1">
         <v>10</v>
@@ -43915,7 +43882,7 @@
         <v>551</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="D25" s="1">
         <v>10</v>
@@ -43954,7 +43921,7 @@
         <v>878218</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="S25" s="1" t="str">
         <f t="shared" si="3"/>
@@ -44058,7 +44025,7 @@
         <v>878021</v>
       </c>
       <c r="AX25" s="1" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="AY25" s="1" t="str">
         <f t="shared" si="11"/>
@@ -44079,7 +44046,7 @@
         <v>37</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="D26" s="1">
         <v>10</v>
@@ -44243,7 +44210,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="D27" s="1">
         <v>10</v>
@@ -44571,7 +44538,7 @@
         <v>38</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="D29" s="1">
         <v>10</v>
@@ -44662,7 +44629,7 @@
         <v>878052</v>
       </c>
       <c r="AH29" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="AI29" s="1" t="str">
         <f t="shared" si="7"/>
@@ -44735,7 +44702,7 @@
         <v>42</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="D30" s="1">
         <v>10</v>
@@ -44878,7 +44845,7 @@
         <v>878023</v>
       </c>
       <c r="AX30" s="1" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="AY30" s="1" t="str">
         <f t="shared" si="11"/>
@@ -44899,7 +44866,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="D31" s="1">
         <v>10</v>
@@ -45042,7 +45009,7 @@
         <v>878023</v>
       </c>
       <c r="AX31" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="AY31" s="1" t="str">
         <f t="shared" si="11"/>
@@ -45227,7 +45194,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="D33" s="1">
         <v>10</v>
@@ -45370,7 +45337,7 @@
         <v>878023</v>
       </c>
       <c r="AX33" s="1" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="AY33" s="1" t="str">
         <f t="shared" si="11"/>
@@ -45391,7 +45358,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="D34" s="1">
         <v>10</v>
@@ -45719,7 +45686,7 @@
         <v>551</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="D36" s="1">
         <v>10</v>
@@ -45758,7 +45725,7 @@
         <v>878021</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="S36" s="1" t="str">
         <f t="shared" si="3"/>
@@ -45862,7 +45829,7 @@
         <v>878023</v>
       </c>
       <c r="AX36" s="1" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="AY36" s="1" t="str">
         <f t="shared" si="11"/>
@@ -46047,7 +46014,7 @@
         <v>38</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="D38" s="4">
         <v>12</v>
@@ -46138,7 +46105,7 @@
         <v>878219</v>
       </c>
       <c r="AH38" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="AI38" s="4" t="str">
         <f t="shared" si="7"/>
@@ -46237,7 +46204,7 @@
         <v>42</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="D39" s="1">
         <v>12</v>
@@ -46380,7 +46347,7 @@
         <v>878049</v>
       </c>
       <c r="AX39" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="AY39" s="1" t="str">
         <f t="shared" si="11"/>
@@ -46427,7 +46394,7 @@
         <v>34</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="D40" s="1">
         <v>12</v>
@@ -46570,7 +46537,7 @@
         <v>878049</v>
       </c>
       <c r="AX40" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="AY40" s="1" t="str">
         <f t="shared" si="11"/>
@@ -46583,7 +46550,7 @@
         <v>879012</v>
       </c>
       <c r="BB40" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="BC40" s="1" t="str">
         <f t="shared" si="13"/>
@@ -46596,7 +46563,7 @@
         <v>879014</v>
       </c>
       <c r="BF40" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="BG40" s="1" t="str">
         <f t="shared" si="14"/>
@@ -46617,7 +46584,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="D41" s="1">
         <v>12</v>
@@ -46786,7 +46753,7 @@
         <v>879014</v>
       </c>
       <c r="BF41" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="BG41" s="1" t="str">
         <f t="shared" si="14"/>
@@ -46807,7 +46774,7 @@
         <v>31</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="D42" s="1">
         <v>12</v>
@@ -46950,7 +46917,7 @@
         <v>878049</v>
       </c>
       <c r="AX42" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="AY42" s="1" t="str">
         <f t="shared" si="11"/>
@@ -46963,7 +46930,7 @@
         <v>879012</v>
       </c>
       <c r="BB42" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="BC42" s="1" t="str">
         <f t="shared" si="13"/>
@@ -46997,7 +46964,7 @@
         <v>32</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="D43" s="1">
         <v>12</v>
@@ -47187,7 +47154,7 @@
         <v>40</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="D44" s="1">
         <v>12</v>
@@ -47343,7 +47310,7 @@
         <v>879012</v>
       </c>
       <c r="BB44" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="BC44" s="1" t="str">
         <f t="shared" si="13"/>
@@ -47356,7 +47323,7 @@
         <v>879014</v>
       </c>
       <c r="BF44" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="BG44" s="1" t="str">
         <f t="shared" si="14"/>
@@ -47377,7 +47344,7 @@
         <v>551</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="D45" s="1">
         <v>12</v>
@@ -47416,7 +47383,7 @@
         <v>878219</v>
       </c>
       <c r="R45" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="S45" s="1" t="str">
         <f t="shared" si="3"/>
@@ -47520,7 +47487,7 @@
         <v>879010</v>
       </c>
       <c r="AX45" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="AY45" s="1" t="str">
         <f t="shared" si="11"/>
@@ -47533,7 +47500,7 @@
         <v>879012</v>
       </c>
       <c r="BB45" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="BC45" s="1" t="str">
         <f t="shared" si="13"/>
@@ -47546,7 +47513,7 @@
         <v>879014</v>
       </c>
       <c r="BF45" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="BG45" s="1" t="str">
         <f t="shared" si="14"/>
@@ -47757,7 +47724,7 @@
         <v>41</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="D47" s="1">
         <v>12</v>
@@ -47809,7 +47776,7 @@
         <v>878219</v>
       </c>
       <c r="V47" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="W47" s="1" t="str">
         <f t="shared" si="4"/>
@@ -47835,7 +47802,7 @@
         <v>878049</v>
       </c>
       <c r="AD47" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="AE47" s="1" t="str">
         <f t="shared" si="6"/>
@@ -47848,7 +47815,7 @@
         <v>878049</v>
       </c>
       <c r="AH47" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="AI47" s="1" t="str">
         <f t="shared" si="7"/>
@@ -47861,7 +47828,7 @@
         <v>878049</v>
       </c>
       <c r="AL47" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="AM47" s="1" t="str">
         <f t="shared" si="8"/>
@@ -47874,7 +47841,7 @@
         <v>878049</v>
       </c>
       <c r="AP47" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="AQ47" s="1" t="str">
         <f t="shared" si="9"/>
@@ -47887,7 +47854,7 @@
         <v>878190</v>
       </c>
       <c r="AT47" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="AU47" s="1" t="str">
         <f t="shared" si="10"/>
@@ -47947,7 +47914,7 @@
         <v>38</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="D48" s="1">
         <v>12</v>
@@ -48038,7 +48005,7 @@
         <v>878093</v>
       </c>
       <c r="AH48" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="AI48" s="1" t="str">
         <f t="shared" si="7"/>
@@ -48137,7 +48104,7 @@
         <v>42</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="D49" s="1">
         <v>12</v>
@@ -48280,7 +48247,7 @@
         <v>879010</v>
       </c>
       <c r="AX49" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="AY49" s="1" t="str">
         <f t="shared" si="11"/>
@@ -48327,7 +48294,7 @@
         <v>34</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="D50" s="1">
         <v>12</v>
@@ -48470,7 +48437,7 @@
         <v>879010</v>
       </c>
       <c r="AX50" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="AY50" s="1" t="str">
         <f t="shared" si="11"/>
@@ -48483,7 +48450,7 @@
         <v>879012</v>
       </c>
       <c r="BB50" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="BC50" s="1" t="str">
         <f t="shared" si="13"/>
@@ -48496,7 +48463,7 @@
         <v>879014</v>
       </c>
       <c r="BF50" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="BG50" s="1" t="str">
         <f t="shared" si="14"/>
@@ -48517,7 +48484,7 @@
         <v>36</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="D51" s="1">
         <v>12</v>
@@ -48686,7 +48653,7 @@
         <v>879014</v>
       </c>
       <c r="BF51" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="BG51" s="1" t="str">
         <f t="shared" si="14"/>
@@ -48707,7 +48674,7 @@
         <v>31</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="D52" s="1">
         <v>12</v>
@@ -48850,7 +48817,7 @@
         <v>879010</v>
       </c>
       <c r="AX52" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="AY52" s="1" t="str">
         <f t="shared" si="11"/>
@@ -48863,7 +48830,7 @@
         <v>879012</v>
       </c>
       <c r="BB52" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="BC52" s="1" t="str">
         <f t="shared" si="13"/>
@@ -48897,7 +48864,7 @@
         <v>32</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="D53" s="1">
         <v>12</v>
@@ -49087,7 +49054,7 @@
         <v>40</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="D54" s="1">
         <v>12</v>
@@ -49243,7 +49210,7 @@
         <v>879012</v>
       </c>
       <c r="BB54" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="BC54" s="1" t="str">
         <f t="shared" si="13"/>
@@ -49256,7 +49223,7 @@
         <v>879014</v>
       </c>
       <c r="BF54" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="BG54" s="1" t="str">
         <f t="shared" si="14"/>
@@ -49277,7 +49244,7 @@
         <v>551</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="D55" s="1">
         <v>12</v>
@@ -49316,7 +49283,7 @@
         <v>878093</v>
       </c>
       <c r="R55" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="S55" s="1" t="str">
         <f t="shared" si="3"/>
@@ -49420,7 +49387,7 @@
         <v>879010</v>
       </c>
       <c r="AX55" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="AY55" s="1" t="str">
         <f t="shared" si="11"/>
@@ -49433,7 +49400,7 @@
         <v>879012</v>
       </c>
       <c r="BB55" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="BC55" s="1" t="str">
         <f t="shared" si="13"/>
@@ -49446,7 +49413,7 @@
         <v>879014</v>
       </c>
       <c r="BF55" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="BG55" s="1" t="str">
         <f t="shared" si="14"/>
@@ -49657,7 +49624,7 @@
         <v>41</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="D57" s="1">
         <v>12</v>
@@ -49709,7 +49676,7 @@
         <v>878093</v>
       </c>
       <c r="V57" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="W57" s="1" t="str">
         <f t="shared" si="4"/>
@@ -49735,7 +49702,7 @@
         <v>878049</v>
       </c>
       <c r="AD57" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="AE57" s="1" t="str">
         <f t="shared" si="6"/>
@@ -49748,7 +49715,7 @@
         <v>878049</v>
       </c>
       <c r="AH57" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="AI57" s="1" t="str">
         <f t="shared" si="7"/>
@@ -49761,7 +49728,7 @@
         <v>878182</v>
       </c>
       <c r="AL57" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="AM57" s="1" t="str">
         <f t="shared" si="8"/>
@@ -49774,7 +49741,7 @@
         <v>878182</v>
       </c>
       <c r="AP57" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="AQ57" s="1" t="str">
         <f t="shared" si="9"/>
@@ -49787,7 +49754,7 @@
         <v>878190</v>
       </c>
       <c r="AT57" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="AU57" s="1" t="str">
         <f t="shared" si="10"/>
@@ -49847,7 +49814,7 @@
         <v>41</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="D58" s="1">
         <v>12</v>
@@ -49899,7 +49866,7 @@
         <v>878093</v>
       </c>
       <c r="V58" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="W58" s="1" t="str">
         <f t="shared" si="4"/>
@@ -49925,7 +49892,7 @@
         <v>878049</v>
       </c>
       <c r="AD58" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="AE58" s="1" t="str">
         <f t="shared" si="6"/>
@@ -49938,7 +49905,7 @@
         <v>878049</v>
       </c>
       <c r="AH58" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="AI58" s="1" t="str">
         <f t="shared" si="7"/>
@@ -49951,7 +49918,7 @@
         <v>878182</v>
       </c>
       <c r="AL58" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="AM58" s="1" t="str">
         <f t="shared" si="8"/>
@@ -49964,7 +49931,7 @@
         <v>878182</v>
       </c>
       <c r="AP58" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="AQ58" s="1" t="str">
         <f t="shared" si="9"/>
@@ -49977,7 +49944,7 @@
         <v>878190</v>
       </c>
       <c r="AT58" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="AU58" s="1" t="str">
         <f t="shared" si="10"/>
@@ -50037,7 +50004,7 @@
         <v>41</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="D59" s="1">
         <v>12</v>
@@ -50089,7 +50056,7 @@
         <v>878093</v>
       </c>
       <c r="V59" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="W59" s="1" t="str">
         <f t="shared" si="4"/>
@@ -50115,7 +50082,7 @@
         <v>878049</v>
       </c>
       <c r="AD59" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="AE59" s="1" t="str">
         <f t="shared" si="6"/>
@@ -50128,7 +50095,7 @@
         <v>878049</v>
       </c>
       <c r="AH59" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="AI59" s="1" t="str">
         <f t="shared" si="7"/>
@@ -50141,7 +50108,7 @@
         <v>878182</v>
       </c>
       <c r="AL59" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="AM59" s="1" t="str">
         <f t="shared" si="8"/>
@@ -50154,7 +50121,7 @@
         <v>878182</v>
       </c>
       <c r="AP59" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="AQ59" s="1" t="str">
         <f t="shared" si="9"/>
@@ -50167,7 +50134,7 @@
         <v>878190</v>
       </c>
       <c r="AT59" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="AU59" s="1" t="str">
         <f t="shared" si="10"/>
@@ -50227,7 +50194,7 @@
         <v>42</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="D60" s="4">
         <v>14</v>
@@ -50370,7 +50337,7 @@
         <v>878016</v>
       </c>
       <c r="AX60" s="5" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="AY60" s="4" t="str">
         <f t="shared" si="11"/>
@@ -50422,7 +50389,7 @@
         <v>878045</v>
       </c>
       <c r="BN60" s="5" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="BO60" s="4" t="str">
         <f t="shared" ref="BO60:BO123" si="17">VLOOKUP(BM60,$CG$2:$CH$424,2,FALSE)</f>
@@ -50443,7 +50410,7 @@
         <v>34</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="D61" s="1">
         <v>14</v>
@@ -50586,7 +50553,7 @@
         <v>878016</v>
       </c>
       <c r="AX61" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="AY61" s="1" t="str">
         <f t="shared" si="11"/>
@@ -50599,7 +50566,7 @@
         <v>878017</v>
       </c>
       <c r="BB61" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="BC61" s="1" t="str">
         <f t="shared" si="13"/>
@@ -50612,7 +50579,7 @@
         <v>878017</v>
       </c>
       <c r="BF61" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="BG61" s="1" t="str">
         <f t="shared" si="14"/>
@@ -50625,7 +50592,7 @@
         <v>878045</v>
       </c>
       <c r="BJ61" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="BK61" s="1" t="str">
         <f t="shared" si="16"/>
@@ -50638,7 +50605,7 @@
         <v>878045</v>
       </c>
       <c r="BN61" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="BO61" s="1" t="str">
         <f t="shared" si="17"/>
@@ -50659,7 +50626,7 @@
         <v>36</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="D62" s="1">
         <v>14</v>
@@ -50828,7 +50795,7 @@
         <v>878017</v>
       </c>
       <c r="BF62" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="BG62" s="1" t="str">
         <f t="shared" si="14"/>
@@ -50841,7 +50808,7 @@
         <v>878045</v>
       </c>
       <c r="BJ62" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="BK62" s="1" t="str">
         <f t="shared" si="16"/>
@@ -50854,7 +50821,7 @@
         <v>878045</v>
       </c>
       <c r="BN62" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="BO62" s="1" t="str">
         <f t="shared" si="17"/>
@@ -50875,7 +50842,7 @@
         <v>31</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="D63" s="1">
         <v>14</v>
@@ -51018,7 +50985,7 @@
         <v>878016</v>
       </c>
       <c r="AX63" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="AY63" s="1" t="str">
         <f t="shared" si="11"/>
@@ -51031,7 +50998,7 @@
         <v>878017</v>
       </c>
       <c r="BB63" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="BC63" s="1" t="str">
         <f t="shared" si="13"/>
@@ -51091,7 +51058,7 @@
         <v>32</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="D64" s="1">
         <v>14</v>
@@ -51307,7 +51274,7 @@
         <v>40</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="D65" s="1">
         <v>14</v>
@@ -51463,7 +51430,7 @@
         <v>878017</v>
       </c>
       <c r="BB65" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="BC65" s="1" t="str">
         <f t="shared" si="13"/>
@@ -51476,7 +51443,7 @@
         <v>878017</v>
       </c>
       <c r="BF65" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="BG65" s="1" t="str">
         <f t="shared" si="14"/>
@@ -51502,7 +51469,7 @@
         <v>878045</v>
       </c>
       <c r="BN65" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="BO65" s="1" t="str">
         <f t="shared" si="17"/>
@@ -51523,7 +51490,7 @@
         <v>551</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="D66" s="1">
         <v>14</v>
@@ -51562,7 +51529,7 @@
         <v>878304</v>
       </c>
       <c r="R66" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="S66" s="1" t="str">
         <f t="shared" si="3"/>
@@ -51666,7 +51633,7 @@
         <v>878017</v>
       </c>
       <c r="AX66" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="AY66" s="1" t="str">
         <f t="shared" si="11"/>
@@ -51679,7 +51646,7 @@
         <v>878017</v>
       </c>
       <c r="BB66" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="BC66" s="1" t="str">
         <f t="shared" si="13"/>
@@ -51692,7 +51659,7 @@
         <v>878017</v>
       </c>
       <c r="BF66" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="BG66" s="1" t="str">
         <f t="shared" si="14"/>
@@ -51705,7 +51672,7 @@
         <v>878045</v>
       </c>
       <c r="BJ66" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="BK66" s="1" t="str">
         <f t="shared" si="16"/>
@@ -51718,7 +51685,7 @@
         <v>878045</v>
       </c>
       <c r="BN66" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="BO66" s="1" t="str">
         <f t="shared" si="17"/>
@@ -51955,7 +51922,7 @@
         <v>41</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="D68" s="1">
         <v>14</v>
@@ -52007,7 +51974,7 @@
         <v>878304</v>
       </c>
       <c r="V68" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="W68" s="1" t="str">
         <f t="shared" ref="W68:W124" si="22">VLOOKUP(U68,$CG$2:$CH$424,2,FALSE)</f>
@@ -52033,7 +52000,7 @@
         <v>878016</v>
       </c>
       <c r="AD68" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="AE68" s="1" t="str">
         <f t="shared" ref="AE68:AE124" si="24">VLOOKUP(AC68,$CG$2:$CH$424,2,FALSE)</f>
@@ -52046,7 +52013,7 @@
         <v>878016</v>
       </c>
       <c r="AH68" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="AI68" s="1" t="str">
         <f t="shared" ref="AI68:AI124" si="25">VLOOKUP(AG68,$CG$2:$CH$424,2,FALSE)</f>
@@ -52059,7 +52026,7 @@
         <v>878016</v>
       </c>
       <c r="AL68" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="AM68" s="1" t="str">
         <f t="shared" ref="AM68:AM124" si="26">VLOOKUP(AK68,$CG$2:$CH$424,2,FALSE)</f>
@@ -52072,7 +52039,7 @@
         <v>878016</v>
       </c>
       <c r="AP68" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="AQ68" s="1" t="str">
         <f t="shared" ref="AQ68:AQ124" si="27">VLOOKUP(AO68,$CG$2:$CH$424,2,FALSE)</f>
@@ -52085,7 +52052,7 @@
         <v>878017</v>
       </c>
       <c r="AT68" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="AU68" s="1" t="str">
         <f t="shared" si="10"/>
@@ -52171,7 +52138,7 @@
         <v>42</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="D69" s="1">
         <v>14</v>
@@ -52314,7 +52281,7 @@
         <v>878017</v>
       </c>
       <c r="AX69" s="5" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="AY69" s="1" t="str">
         <f t="shared" si="11"/>
@@ -52366,7 +52333,7 @@
         <v>878045</v>
       </c>
       <c r="BN69" s="5" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="BO69" s="1" t="str">
         <f t="shared" si="17"/>
@@ -52387,7 +52354,7 @@
         <v>34</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="D70" s="1">
         <v>14</v>
@@ -52530,7 +52497,7 @@
         <v>878063</v>
       </c>
       <c r="AX70" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="AY70" s="1" t="str">
         <f t="shared" si="11"/>
@@ -52543,7 +52510,7 @@
         <v>878063</v>
       </c>
       <c r="BB70" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="BC70" s="1" t="str">
         <f t="shared" si="13"/>
@@ -52556,7 +52523,7 @@
         <v>878035</v>
       </c>
       <c r="BF70" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="BG70" s="1" t="str">
         <f t="shared" si="14"/>
@@ -52569,7 +52536,7 @@
         <v>878045</v>
       </c>
       <c r="BJ70" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="BK70" s="1" t="str">
         <f t="shared" si="16"/>
@@ -52582,7 +52549,7 @@
         <v>878037</v>
       </c>
       <c r="BN70" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="BO70" s="1" t="str">
         <f t="shared" si="17"/>
@@ -52603,7 +52570,7 @@
         <v>36</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="D71" s="1">
         <v>14</v>
@@ -52772,7 +52739,7 @@
         <v>878035</v>
       </c>
       <c r="BF71" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="BG71" s="1" t="str">
         <f t="shared" si="14"/>
@@ -52785,7 +52752,7 @@
         <v>878045</v>
       </c>
       <c r="BJ71" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="BK71" s="1" t="str">
         <f t="shared" si="16"/>
@@ -52798,7 +52765,7 @@
         <v>878037</v>
       </c>
       <c r="BN71" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="BO71" s="1" t="str">
         <f t="shared" si="17"/>
@@ -52819,7 +52786,7 @@
         <v>31</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="D72" s="1">
         <v>14</v>
@@ -52962,7 +52929,7 @@
         <v>878063</v>
       </c>
       <c r="AX72" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="AY72" s="1" t="str">
         <f t="shared" si="11"/>
@@ -52975,7 +52942,7 @@
         <v>878063</v>
       </c>
       <c r="BB72" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="BC72" s="1" t="str">
         <f t="shared" si="13"/>
@@ -53035,7 +53002,7 @@
         <v>32</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="D73" s="1">
         <v>14</v>
@@ -53251,7 +53218,7 @@
         <v>40</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="D74" s="1">
         <v>14</v>
@@ -53407,7 +53374,7 @@
         <v>878063</v>
       </c>
       <c r="BB74" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="BC74" s="1" t="str">
         <f t="shared" si="13"/>
@@ -53420,7 +53387,7 @@
         <v>878035</v>
       </c>
       <c r="BF74" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="BG74" s="1" t="str">
         <f t="shared" si="14"/>
@@ -53446,7 +53413,7 @@
         <v>878037</v>
       </c>
       <c r="BN74" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="BO74" s="1" t="str">
         <f t="shared" si="17"/>
@@ -53467,7 +53434,7 @@
         <v>551</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="D75" s="1">
         <v>14</v>
@@ -53506,7 +53473,7 @@
         <v>878017</v>
       </c>
       <c r="R75" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="S75" s="1" t="str">
         <f t="shared" si="21"/>
@@ -53610,7 +53577,7 @@
         <v>878304</v>
       </c>
       <c r="AX75" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="AY75" s="1" t="str">
         <f t="shared" si="11"/>
@@ -53623,7 +53590,7 @@
         <v>878035</v>
       </c>
       <c r="BB75" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="BC75" s="1" t="str">
         <f t="shared" si="13"/>
@@ -53636,7 +53603,7 @@
         <v>878045</v>
       </c>
       <c r="BF75" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="BG75" s="1" t="str">
         <f t="shared" si="14"/>
@@ -53649,7 +53616,7 @@
         <v>878037</v>
       </c>
       <c r="BJ75" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="BK75" s="1" t="str">
         <f t="shared" si="16"/>
@@ -53662,7 +53629,7 @@
         <v>878037</v>
       </c>
       <c r="BN75" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="BO75" s="1" t="str">
         <f t="shared" si="17"/>
@@ -53899,7 +53866,7 @@
         <v>41</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="D77" s="1">
         <v>14</v>
@@ -53951,7 +53918,7 @@
         <v>878017</v>
       </c>
       <c r="V77" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="W77" s="1" t="str">
         <f t="shared" si="22"/>
@@ -53977,7 +53944,7 @@
         <v>878063</v>
       </c>
       <c r="AD77" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="AE77" s="1" t="str">
         <f t="shared" si="24"/>
@@ -53990,7 +53957,7 @@
         <v>878063</v>
       </c>
       <c r="AH77" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="AI77" s="1" t="str">
         <f t="shared" si="25"/>
@@ -54003,7 +53970,7 @@
         <v>878063</v>
       </c>
       <c r="AL77" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="AM77" s="1" t="str">
         <f t="shared" si="26"/>
@@ -54016,7 +53983,7 @@
         <v>878063</v>
       </c>
       <c r="AP77" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="AQ77" s="1" t="str">
         <f t="shared" si="27"/>
@@ -54029,7 +53996,7 @@
         <v>878303</v>
       </c>
       <c r="AT77" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="AU77" s="1" t="str">
         <f t="shared" si="10"/>
@@ -54115,7 +54082,7 @@
         <v>41</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="D78" s="1">
         <v>14</v>
@@ -54167,7 +54134,7 @@
         <v>878017</v>
       </c>
       <c r="V78" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="W78" s="1" t="str">
         <f t="shared" si="22"/>
@@ -54193,7 +54160,7 @@
         <v>878063</v>
       </c>
       <c r="AD78" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="AE78" s="1" t="str">
         <f t="shared" si="24"/>
@@ -54206,7 +54173,7 @@
         <v>878063</v>
       </c>
       <c r="AH78" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="AI78" s="1" t="str">
         <f t="shared" si="25"/>
@@ -54219,7 +54186,7 @@
         <v>878063</v>
       </c>
       <c r="AL78" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="AM78" s="1" t="str">
         <f t="shared" si="26"/>
@@ -54232,7 +54199,7 @@
         <v>878063</v>
       </c>
       <c r="AP78" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="AQ78" s="1" t="str">
         <f t="shared" si="27"/>
@@ -54245,7 +54212,7 @@
         <v>878303</v>
       </c>
       <c r="AT78" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="AU78" s="1" t="str">
         <f t="shared" si="10"/>
@@ -54331,7 +54298,7 @@
         <v>41</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="D79" s="1">
         <v>14</v>
@@ -54383,7 +54350,7 @@
         <v>878017</v>
       </c>
       <c r="V79" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="W79" s="1" t="str">
         <f t="shared" si="22"/>
@@ -54409,7 +54376,7 @@
         <v>878063</v>
       </c>
       <c r="AD79" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="AE79" s="1" t="str">
         <f t="shared" si="24"/>
@@ -54422,7 +54389,7 @@
         <v>878063</v>
       </c>
       <c r="AH79" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="AI79" s="1" t="str">
         <f t="shared" si="25"/>
@@ -54435,7 +54402,7 @@
         <v>878063</v>
       </c>
       <c r="AL79" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="AM79" s="1" t="str">
         <f t="shared" si="26"/>
@@ -54448,7 +54415,7 @@
         <v>878063</v>
       </c>
       <c r="AP79" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="AQ79" s="1" t="str">
         <f t="shared" si="27"/>
@@ -54461,7 +54428,7 @@
         <v>878303</v>
       </c>
       <c r="AT79" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="AU79" s="1" t="str">
         <f t="shared" si="10"/>
@@ -54547,7 +54514,7 @@
         <v>34</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="D80" s="4">
         <v>16</v>
@@ -54690,7 +54657,7 @@
         <v>878234</v>
       </c>
       <c r="AX80" s="5" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="AY80" s="4" t="str">
         <f t="shared" ref="AY80:AY124" si="29">VLOOKUP(AW80,$CG$2:$CH$424,2,FALSE)</f>
@@ -54703,7 +54670,7 @@
         <v>878285</v>
       </c>
       <c r="BB80" s="5" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="BC80" s="4" t="str">
         <f t="shared" si="13"/>
@@ -54716,7 +54683,7 @@
         <v>878285</v>
       </c>
       <c r="BF80" s="5" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="BG80" s="4" t="str">
         <f t="shared" si="14"/>
@@ -54729,7 +54696,7 @@
         <v>878081</v>
       </c>
       <c r="BJ80" s="5" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="BK80" s="4" t="str">
         <f t="shared" si="16"/>
@@ -54742,7 +54709,7 @@
         <v>878081</v>
       </c>
       <c r="BN80" s="5" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="BO80" s="4" t="str">
         <f t="shared" si="17"/>
@@ -54755,7 +54722,7 @@
         <v>878323</v>
       </c>
       <c r="BR80" s="5" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="BS80" s="4" t="str">
         <f t="shared" ref="BS80:BS124" si="30">VLOOKUP(BQ80,$CG$2:$CH$424,2,FALSE)</f>
@@ -54768,7 +54735,7 @@
         <v>878132</v>
       </c>
       <c r="BV80" s="5" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="BW80" s="4" t="str">
         <f t="shared" ref="BW80:BW124" si="31">VLOOKUP(BU80,$CG$2:$CH$424,2,FALSE)</f>
@@ -54789,7 +54756,7 @@
         <v>36</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="D81" s="1">
         <v>16</v>
@@ -54958,7 +54925,7 @@
         <v>878285</v>
       </c>
       <c r="BF81" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="BG81" s="1" t="str">
         <f t="shared" si="14"/>
@@ -54971,7 +54938,7 @@
         <v>878081</v>
       </c>
       <c r="BJ81" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="BK81" s="1" t="str">
         <f t="shared" si="16"/>
@@ -54984,7 +54951,7 @@
         <v>878081</v>
       </c>
       <c r="BN81" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="BO81" s="1" t="str">
         <f t="shared" si="17"/>
@@ -54997,7 +54964,7 @@
         <v>878323</v>
       </c>
       <c r="BR81" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="BS81" s="1" t="str">
         <f t="shared" si="30"/>
@@ -55010,7 +54977,7 @@
         <v>878132</v>
       </c>
       <c r="BV81" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="BW81" s="1" t="str">
         <f t="shared" si="31"/>
@@ -55031,7 +54998,7 @@
         <v>31</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="D82" s="1">
         <v>16</v>
@@ -55174,7 +55141,7 @@
         <v>878234</v>
       </c>
       <c r="AX82" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="AY82" s="1" t="str">
         <f t="shared" si="29"/>
@@ -55187,7 +55154,7 @@
         <v>878285</v>
       </c>
       <c r="BB82" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="BC82" s="1" t="str">
         <f t="shared" si="13"/>
@@ -55273,7 +55240,7 @@
         <v>32</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="D83" s="1">
         <v>16</v>
@@ -55481,7 +55448,7 @@
         <v>878323</v>
       </c>
       <c r="BR83" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="BS83" s="1" t="str">
         <f t="shared" si="30"/>
@@ -55494,7 +55461,7 @@
         <v>878132</v>
       </c>
       <c r="BV83" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="BW83" s="1" t="str">
         <f t="shared" si="31"/>
@@ -55515,7 +55482,7 @@
         <v>40</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="D84" s="1">
         <v>16</v>
@@ -55671,7 +55638,7 @@
         <v>878285</v>
       </c>
       <c r="BB84" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="BC84" s="1" t="str">
         <f t="shared" si="13"/>
@@ -55684,7 +55651,7 @@
         <v>878285</v>
       </c>
       <c r="BF84" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="BG84" s="1" t="str">
         <f t="shared" si="14"/>
@@ -55710,7 +55677,7 @@
         <v>878081</v>
       </c>
       <c r="BN84" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="BO84" s="1" t="str">
         <f t="shared" si="17"/>
@@ -55723,7 +55690,7 @@
         <v>878323</v>
       </c>
       <c r="BR84" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="BS84" s="1" t="str">
         <f t="shared" si="30"/>
@@ -55736,7 +55703,7 @@
         <v>878132</v>
       </c>
       <c r="BV84" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="BW84" s="1" t="str">
         <f t="shared" si="31"/>
@@ -55757,7 +55724,7 @@
         <v>551</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="D85" s="1">
         <v>16</v>
@@ -55796,7 +55763,7 @@
         <v>878133</v>
       </c>
       <c r="R85" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="S85" s="1" t="str">
         <f t="shared" si="21"/>
@@ -55900,7 +55867,7 @@
         <v>878285</v>
       </c>
       <c r="AX85" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="AY85" s="1" t="str">
         <f t="shared" si="29"/>
@@ -55913,7 +55880,7 @@
         <v>878285</v>
       </c>
       <c r="BB85" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="BC85" s="1" t="str">
         <f t="shared" si="13"/>
@@ -55926,7 +55893,7 @@
         <v>878081</v>
       </c>
       <c r="BF85" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="BG85" s="1" t="str">
         <f t="shared" si="14"/>
@@ -55939,7 +55906,7 @@
         <v>878081</v>
       </c>
       <c r="BJ85" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="BK85" s="1" t="str">
         <f t="shared" si="16"/>
@@ -55952,7 +55919,7 @@
         <v>878136</v>
       </c>
       <c r="BN85" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="BO85" s="1" t="str">
         <f t="shared" si="17"/>
@@ -55965,7 +55932,7 @@
         <v>878323</v>
       </c>
       <c r="BR85" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="BS85" s="1" t="str">
         <f t="shared" si="30"/>
@@ -55978,7 +55945,7 @@
         <v>878132</v>
       </c>
       <c r="BV85" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="BW85" s="1" t="str">
         <f t="shared" si="31"/>
@@ -56241,7 +56208,7 @@
         <v>41</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="D87" s="1">
         <v>16</v>
@@ -56293,7 +56260,7 @@
         <v>878133</v>
       </c>
       <c r="V87" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="W87" s="1" t="str">
         <f t="shared" si="22"/>
@@ -56319,7 +56286,7 @@
         <v>878234</v>
       </c>
       <c r="AD87" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="AE87" s="1" t="str">
         <f t="shared" si="24"/>
@@ -56332,7 +56299,7 @@
         <v>878234</v>
       </c>
       <c r="AH87" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="AI87" s="1" t="str">
         <f t="shared" si="25"/>
@@ -56345,7 +56312,7 @@
         <v>878234</v>
       </c>
       <c r="AL87" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="AM87" s="1" t="str">
         <f t="shared" si="26"/>
@@ -56358,7 +56325,7 @@
         <v>878234</v>
       </c>
       <c r="AP87" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="AQ87" s="1" t="str">
         <f t="shared" si="27"/>
@@ -56371,7 +56338,7 @@
         <v>878285</v>
       </c>
       <c r="AT87" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="AU87" s="1" t="str">
         <f t="shared" si="28"/>
@@ -56483,7 +56450,7 @@
         <v>34</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="D88" s="1">
         <v>16</v>
@@ -56626,7 +56593,7 @@
         <v>878285</v>
       </c>
       <c r="AX88" s="5" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="AY88" s="1" t="str">
         <f t="shared" si="29"/>
@@ -56639,7 +56606,7 @@
         <v>878285</v>
       </c>
       <c r="BB88" s="5" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="BC88" s="1" t="str">
         <f t="shared" si="13"/>
@@ -56652,7 +56619,7 @@
         <v>878081</v>
       </c>
       <c r="BF88" s="5" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="BG88" s="1" t="str">
         <f t="shared" si="14"/>
@@ -56665,7 +56632,7 @@
         <v>878081</v>
       </c>
       <c r="BJ88" s="5" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="BK88" s="1" t="str">
         <f t="shared" si="16"/>
@@ -56678,7 +56645,7 @@
         <v>878136</v>
       </c>
       <c r="BN88" s="5" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="BO88" s="1" t="str">
         <f t="shared" si="17"/>
@@ -56691,7 +56658,7 @@
         <v>878323</v>
       </c>
       <c r="BR88" s="5" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="BS88" s="1" t="str">
         <f t="shared" si="30"/>
@@ -56704,7 +56671,7 @@
         <v>878132</v>
       </c>
       <c r="BV88" s="5" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="BW88" s="1" t="str">
         <f t="shared" si="31"/>
@@ -56725,7 +56692,7 @@
         <v>36</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="D89" s="1">
         <v>16</v>
@@ -56894,7 +56861,7 @@
         <v>878081</v>
       </c>
       <c r="BF89" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="BG89" s="1" t="str">
         <f t="shared" si="14"/>
@@ -56907,7 +56874,7 @@
         <v>878081</v>
       </c>
       <c r="BJ89" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="BK89" s="1" t="str">
         <f t="shared" si="16"/>
@@ -56920,7 +56887,7 @@
         <v>878136</v>
       </c>
       <c r="BN89" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="BO89" s="1" t="str">
         <f t="shared" si="17"/>
@@ -56933,7 +56900,7 @@
         <v>878323</v>
       </c>
       <c r="BR89" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="BS89" s="1" t="str">
         <f t="shared" si="30"/>
@@ -56946,7 +56913,7 @@
         <v>878132</v>
       </c>
       <c r="BV89" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="BW89" s="1" t="str">
         <f t="shared" si="31"/>
@@ -56967,7 +56934,7 @@
         <v>31</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="D90" s="1">
         <v>16</v>
@@ -57110,7 +57077,7 @@
         <v>878285</v>
       </c>
       <c r="AX90" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="AY90" s="1" t="str">
         <f t="shared" si="29"/>
@@ -57123,7 +57090,7 @@
         <v>878323</v>
       </c>
       <c r="BB90" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="BC90" s="1" t="str">
         <f t="shared" si="13"/>
@@ -57209,7 +57176,7 @@
         <v>32</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="D91" s="1">
         <v>16</v>
@@ -57417,7 +57384,7 @@
         <v>878037</v>
       </c>
       <c r="BR91" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="BS91" s="1" t="str">
         <f t="shared" si="30"/>
@@ -57430,7 +57397,7 @@
         <v>878045</v>
       </c>
       <c r="BV91" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="BW91" s="1" t="str">
         <f t="shared" si="31"/>
@@ -57451,7 +57418,7 @@
         <v>40</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="D92" s="1">
         <v>16</v>
@@ -57607,7 +57574,7 @@
         <v>878323</v>
       </c>
       <c r="BB92" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="BC92" s="1" t="str">
         <f t="shared" si="13"/>
@@ -57620,7 +57587,7 @@
         <v>878132</v>
       </c>
       <c r="BF92" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="BG92" s="1" t="str">
         <f t="shared" si="14"/>
@@ -57646,7 +57613,7 @@
         <v>878135</v>
       </c>
       <c r="BN92" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="BO92" s="1" t="str">
         <f t="shared" si="17"/>
@@ -57659,7 +57626,7 @@
         <v>878037</v>
       </c>
       <c r="BR92" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="BS92" s="1" t="str">
         <f t="shared" si="30"/>
@@ -57672,7 +57639,7 @@
         <v>878045</v>
       </c>
       <c r="BV92" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="BW92" s="1" t="str">
         <f t="shared" si="31"/>
@@ -57693,7 +57660,7 @@
         <v>551</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="D93" s="1">
         <v>16</v>
@@ -57732,7 +57699,7 @@
         <v>878133</v>
       </c>
       <c r="R93" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="S93" s="1" t="str">
         <f t="shared" si="21"/>
@@ -57836,7 +57803,7 @@
         <v>878285</v>
       </c>
       <c r="AX93" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="AY93" s="1" t="str">
         <f t="shared" si="29"/>
@@ -57849,7 +57816,7 @@
         <v>878323</v>
       </c>
       <c r="BB93" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="BC93" s="1" t="str">
         <f t="shared" si="13"/>
@@ -57862,7 +57829,7 @@
         <v>878132</v>
       </c>
       <c r="BF93" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="BG93" s="1" t="str">
         <f t="shared" si="14"/>
@@ -57875,7 +57842,7 @@
         <v>878136</v>
       </c>
       <c r="BJ93" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="BK93" s="1" t="str">
         <f t="shared" si="16"/>
@@ -57888,7 +57855,7 @@
         <v>878135</v>
       </c>
       <c r="BN93" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="BO93" s="1" t="str">
         <f t="shared" si="17"/>
@@ -57901,7 +57868,7 @@
         <v>878037</v>
       </c>
       <c r="BR93" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="BS93" s="1" t="str">
         <f t="shared" si="30"/>
@@ -57914,7 +57881,7 @@
         <v>878045</v>
       </c>
       <c r="BV93" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="BW93" s="1" t="str">
         <f t="shared" si="31"/>
@@ -58177,7 +58144,7 @@
         <v>41</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="D95" s="1">
         <v>16</v>
@@ -58229,7 +58196,7 @@
         <v>878081</v>
       </c>
       <c r="V95" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="W95" s="1" t="str">
         <f t="shared" si="22"/>
@@ -58255,7 +58222,7 @@
         <v>878234</v>
       </c>
       <c r="AD95" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="AE95" s="1" t="str">
         <f t="shared" si="24"/>
@@ -58268,7 +58235,7 @@
         <v>878234</v>
       </c>
       <c r="AH95" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="AI95" s="1" t="str">
         <f t="shared" si="25"/>
@@ -58281,7 +58248,7 @@
         <v>878234</v>
       </c>
       <c r="AL95" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="AM95" s="1" t="str">
         <f t="shared" si="26"/>
@@ -58294,7 +58261,7 @@
         <v>878285</v>
       </c>
       <c r="AP95" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="AQ95" s="1" t="str">
         <f t="shared" si="27"/>
@@ -58307,7 +58274,7 @@
         <v>878285</v>
       </c>
       <c r="AT95" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="AU95" s="1" t="str">
         <f t="shared" si="28"/>
@@ -58419,7 +58386,7 @@
         <v>34</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="D96" s="1">
         <v>16</v>
@@ -58562,7 +58529,7 @@
         <v>878285</v>
       </c>
       <c r="AX96" s="5" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="AY96" s="1" t="str">
         <f t="shared" si="29"/>
@@ -58575,7 +58542,7 @@
         <v>878323</v>
       </c>
       <c r="BB96" s="5" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="BC96" s="1" t="str">
         <f t="shared" si="13"/>
@@ -58588,7 +58555,7 @@
         <v>878132</v>
       </c>
       <c r="BF96" s="5" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="BG96" s="1" t="str">
         <f t="shared" si="14"/>
@@ -58601,7 +58568,7 @@
         <v>878136</v>
       </c>
       <c r="BJ96" s="5" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="BK96" s="1" t="str">
         <f t="shared" si="16"/>
@@ -58614,7 +58581,7 @@
         <v>878135</v>
       </c>
       <c r="BN96" s="5" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="BO96" s="1" t="str">
         <f t="shared" si="17"/>
@@ -58627,7 +58594,7 @@
         <v>878037</v>
       </c>
       <c r="BR96" s="5" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="BS96" s="1" t="str">
         <f t="shared" si="30"/>
@@ -58640,7 +58607,7 @@
         <v>878045</v>
       </c>
       <c r="BV96" s="5" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="BW96" s="1" t="str">
         <f t="shared" si="31"/>
@@ -58661,7 +58628,7 @@
         <v>36</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="D97" s="1">
         <v>16</v>
@@ -58830,7 +58797,7 @@
         <v>878132</v>
       </c>
       <c r="BF97" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="BG97" s="1" t="str">
         <f t="shared" si="14"/>
@@ -58843,7 +58810,7 @@
         <v>878136</v>
       </c>
       <c r="BJ97" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="BK97" s="1" t="str">
         <f t="shared" si="16"/>
@@ -58856,7 +58823,7 @@
         <v>878135</v>
       </c>
       <c r="BN97" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="BO97" s="1" t="str">
         <f t="shared" si="17"/>
@@ -58869,7 +58836,7 @@
         <v>878037</v>
       </c>
       <c r="BR97" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="BS97" s="1" t="str">
         <f t="shared" si="30"/>
@@ -58882,7 +58849,7 @@
         <v>878045</v>
       </c>
       <c r="BV97" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="BW97" s="1" t="str">
         <f t="shared" si="31"/>
@@ -58903,7 +58870,7 @@
         <v>31</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="D98" s="1">
         <v>16</v>
@@ -59046,7 +59013,7 @@
         <v>878285</v>
       </c>
       <c r="AX98" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="AY98" s="1" t="str">
         <f t="shared" si="29"/>
@@ -59059,7 +59026,7 @@
         <v>878323</v>
       </c>
       <c r="BB98" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="BC98" s="1" t="str">
         <f t="shared" si="13"/>
@@ -59145,7 +59112,7 @@
         <v>32</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="D99" s="1">
         <v>16</v>
@@ -59353,7 +59320,7 @@
         <v>878037</v>
       </c>
       <c r="BR99" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="BS99" s="1" t="str">
         <f t="shared" si="30"/>
@@ -59366,7 +59333,7 @@
         <v>878045</v>
       </c>
       <c r="BV99" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="BW99" s="1" t="str">
         <f t="shared" si="31"/>
@@ -59387,7 +59354,7 @@
         <v>31</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="D100" s="4">
         <v>18</v>
@@ -59530,7 +59497,7 @@
         <v>878276</v>
       </c>
       <c r="AX100" s="5" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="AY100" s="4" t="str">
         <f t="shared" si="29"/>
@@ -59543,7 +59510,7 @@
         <v>878276</v>
       </c>
       <c r="BB100" s="5" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="BC100" s="4" t="str">
         <f t="shared" si="13"/>
@@ -59655,7 +59622,7 @@
         <v>32</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="D101" s="1">
         <v>18</v>
@@ -59863,7 +59830,7 @@
         <v>878083</v>
       </c>
       <c r="BR101" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="BS101" s="1" t="str">
         <f t="shared" si="30"/>
@@ -59876,7 +59843,7 @@
         <v>878083</v>
       </c>
       <c r="BV101" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="BW101" s="1" t="str">
         <f t="shared" si="31"/>
@@ -59889,7 +59856,7 @@
         <v>878258</v>
       </c>
       <c r="BZ101" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="CA101" s="1" t="str">
         <f t="shared" si="33"/>
@@ -59902,7 +59869,7 @@
         <v>878257</v>
       </c>
       <c r="CD101" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="CE101" s="1" t="str">
         <f t="shared" si="34"/>
@@ -59923,7 +59890,7 @@
         <v>40</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="D102" s="1">
         <v>18</v>
@@ -60079,7 +60046,7 @@
         <v>878276</v>
       </c>
       <c r="BB102" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="BC102" s="1" t="str">
         <f t="shared" ref="BC102:BC124" si="36">VLOOKUP(BA102,$CG$2:$CH$424,2,FALSE)</f>
@@ -60092,7 +60059,7 @@
         <v>878276</v>
       </c>
       <c r="BF102" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="BG102" s="1" t="str">
         <f t="shared" ref="BG102:BG124" si="37">VLOOKUP(BE102,$CG$2:$CH$424,2,FALSE)</f>
@@ -60118,7 +60085,7 @@
         <v>878083</v>
       </c>
       <c r="BN102" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="BO102" s="1" t="str">
         <f t="shared" si="17"/>
@@ -60131,7 +60098,7 @@
         <v>878083</v>
       </c>
       <c r="BR102" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="BS102" s="1" t="str">
         <f t="shared" si="30"/>
@@ -60144,7 +60111,7 @@
         <v>878083</v>
       </c>
       <c r="BV102" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="BW102" s="1" t="str">
         <f t="shared" si="31"/>
@@ -60157,7 +60124,7 @@
         <v>878258</v>
       </c>
       <c r="BZ102" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="CA102" s="1" t="str">
         <f t="shared" si="33"/>
@@ -60170,7 +60137,7 @@
         <v>878257</v>
       </c>
       <c r="CD102" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="CE102" s="1" t="str">
         <f t="shared" si="34"/>
@@ -60191,7 +60158,7 @@
         <v>551</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="D103" s="1">
         <v>18</v>
@@ -60230,7 +60197,7 @@
         <v>878268</v>
       </c>
       <c r="R103" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="S103" s="1" t="str">
         <f t="shared" si="21"/>
@@ -60334,7 +60301,7 @@
         <v>878276</v>
       </c>
       <c r="AX103" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="AY103" s="1" t="str">
         <f t="shared" si="29"/>
@@ -60347,7 +60314,7 @@
         <v>878276</v>
       </c>
       <c r="BB103" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="BC103" s="1" t="str">
         <f t="shared" si="36"/>
@@ -60360,7 +60327,7 @@
         <v>878276</v>
       </c>
       <c r="BF103" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="BG103" s="1" t="str">
         <f t="shared" si="37"/>
@@ -60373,7 +60340,7 @@
         <v>878083</v>
       </c>
       <c r="BJ103" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="BK103" s="1" t="str">
         <f t="shared" si="16"/>
@@ -60386,7 +60353,7 @@
         <v>878083</v>
       </c>
       <c r="BN103" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="BO103" s="1" t="str">
         <f t="shared" si="17"/>
@@ -60399,7 +60366,7 @@
         <v>878083</v>
       </c>
       <c r="BR103" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="BS103" s="1" t="str">
         <f t="shared" si="30"/>
@@ -60412,7 +60379,7 @@
         <v>878083</v>
       </c>
       <c r="BV103" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="BW103" s="1" t="str">
         <f t="shared" si="31"/>
@@ -60425,7 +60392,7 @@
         <v>878258</v>
       </c>
       <c r="BZ103" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="CA103" s="1" t="str">
         <f t="shared" si="33"/>
@@ -60438,7 +60405,7 @@
         <v>878257</v>
       </c>
       <c r="CD103" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="CE103" s="1" t="str">
         <f t="shared" si="34"/>
@@ -60727,7 +60694,7 @@
         <v>41</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="D105" s="1">
         <v>18</v>
@@ -60779,7 +60746,7 @@
         <v>878082</v>
       </c>
       <c r="V105" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="W105" s="1" t="str">
         <f t="shared" si="22"/>
@@ -60805,7 +60772,7 @@
         <v>878276</v>
       </c>
       <c r="AD105" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="AE105" s="1" t="str">
         <f t="shared" si="24"/>
@@ -60818,7 +60785,7 @@
         <v>878276</v>
       </c>
       <c r="AH105" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="AI105" s="1" t="str">
         <f t="shared" si="25"/>
@@ -60831,7 +60798,7 @@
         <v>878276</v>
       </c>
       <c r="AL105" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="AM105" s="1" t="str">
         <f t="shared" si="26"/>
@@ -60844,7 +60811,7 @@
         <v>878276</v>
       </c>
       <c r="AP105" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="AQ105" s="1" t="str">
         <f t="shared" si="27"/>
@@ -60857,7 +60824,7 @@
         <v>878083</v>
       </c>
       <c r="AT105" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="AU105" s="1" t="str">
         <f t="shared" si="28"/>
@@ -60995,7 +60962,7 @@
         <v>31</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="D106" s="1">
         <v>18</v>
@@ -61138,7 +61105,7 @@
         <v>878083</v>
       </c>
       <c r="AX106" s="5" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="AY106" s="1" t="str">
         <f t="shared" si="29"/>
@@ -61151,7 +61118,7 @@
         <v>878083</v>
       </c>
       <c r="BB106" s="5" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="BC106" s="1" t="str">
         <f t="shared" si="36"/>
@@ -61263,7 +61230,7 @@
         <v>32</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="D107" s="1">
         <v>18</v>
@@ -61471,7 +61438,7 @@
         <v>878376</v>
       </c>
       <c r="BR107" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="BS107" s="1" t="str">
         <f t="shared" si="30"/>
@@ -61484,7 +61451,7 @@
         <v>878043</v>
       </c>
       <c r="BV107" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="BW107" s="1" t="str">
         <f t="shared" si="31"/>
@@ -61497,7 +61464,7 @@
         <v>878258</v>
       </c>
       <c r="BZ107" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="CA107" s="1" t="str">
         <f t="shared" si="33"/>
@@ -61510,7 +61477,7 @@
         <v>878257</v>
       </c>
       <c r="CD107" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="CE107" s="1" t="str">
         <f t="shared" si="34"/>
@@ -61531,7 +61498,7 @@
         <v>40</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="D108" s="1">
         <v>18</v>
@@ -61687,7 +61654,7 @@
         <v>878083</v>
       </c>
       <c r="BB108" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="BC108" s="1" t="str">
         <f t="shared" si="36"/>
@@ -61700,7 +61667,7 @@
         <v>878376</v>
       </c>
       <c r="BF108" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="BG108" s="1" t="str">
         <f t="shared" si="37"/>
@@ -61726,7 +61693,7 @@
         <v>878376</v>
       </c>
       <c r="BN108" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="BO108" s="1" t="str">
         <f t="shared" si="17"/>
@@ -61739,7 +61706,7 @@
         <v>878376</v>
       </c>
       <c r="BR108" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="BS108" s="1" t="str">
         <f t="shared" si="30"/>
@@ -61752,7 +61719,7 @@
         <v>878043</v>
       </c>
       <c r="BV108" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="BW108" s="1" t="str">
         <f t="shared" si="31"/>
@@ -61765,7 +61732,7 @@
         <v>878258</v>
       </c>
       <c r="BZ108" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="CA108" s="1" t="str">
         <f t="shared" si="33"/>
@@ -61778,7 +61745,7 @@
         <v>878257</v>
       </c>
       <c r="CD108" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="CE108" s="1" t="str">
         <f t="shared" si="34"/>
@@ -61799,7 +61766,7 @@
         <v>551</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="D109" s="1">
         <v>18</v>
@@ -61838,7 +61805,7 @@
         <v>878082</v>
       </c>
       <c r="R109" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="S109" s="1" t="str">
         <f t="shared" si="21"/>
@@ -61942,7 +61909,7 @@
         <v>878083</v>
       </c>
       <c r="AX109" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="AY109" s="1" t="str">
         <f t="shared" si="29"/>
@@ -61955,7 +61922,7 @@
         <v>878083</v>
       </c>
       <c r="BB109" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="BC109" s="1" t="str">
         <f t="shared" si="36"/>
@@ -61968,7 +61935,7 @@
         <v>878376</v>
       </c>
       <c r="BF109" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="BG109" s="1" t="str">
         <f t="shared" si="37"/>
@@ -61981,7 +61948,7 @@
         <v>878376</v>
       </c>
       <c r="BJ109" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="BK109" s="1" t="str">
         <f t="shared" si="16"/>
@@ -61994,7 +61961,7 @@
         <v>878376</v>
       </c>
       <c r="BN109" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="BO109" s="1" t="str">
         <f t="shared" si="17"/>
@@ -62007,7 +61974,7 @@
         <v>878376</v>
       </c>
       <c r="BR109" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="BS109" s="1" t="str">
         <f t="shared" si="30"/>
@@ -62020,7 +61987,7 @@
         <v>878043</v>
       </c>
       <c r="BV109" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="BW109" s="1" t="str">
         <f t="shared" si="31"/>
@@ -62033,7 +62000,7 @@
         <v>878258</v>
       </c>
       <c r="BZ109" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="CA109" s="1" t="str">
         <f t="shared" si="33"/>
@@ -62046,7 +62013,7 @@
         <v>878257</v>
       </c>
       <c r="CD109" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="CE109" s="1" t="str">
         <f t="shared" si="34"/>
@@ -62335,7 +62302,7 @@
         <v>41</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="D111" s="1">
         <v>18</v>
@@ -62387,7 +62354,7 @@
         <v>878276</v>
       </c>
       <c r="V111" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="W111" s="1" t="str">
         <f t="shared" si="22"/>
@@ -62413,7 +62380,7 @@
         <v>878083</v>
       </c>
       <c r="AD111" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="AE111" s="1" t="str">
         <f t="shared" si="24"/>
@@ -62426,7 +62393,7 @@
         <v>878083</v>
       </c>
       <c r="AH111" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="AI111" s="1" t="str">
         <f t="shared" si="25"/>
@@ -62439,7 +62406,7 @@
         <v>878083</v>
       </c>
       <c r="AL111" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="AM111" s="1" t="str">
         <f t="shared" si="26"/>
@@ -62452,7 +62419,7 @@
         <v>878083</v>
       </c>
       <c r="AP111" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="AQ111" s="1" t="str">
         <f t="shared" si="27"/>
@@ -62465,7 +62432,7 @@
         <v>878376</v>
       </c>
       <c r="AT111" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="AU111" s="1" t="str">
         <f t="shared" si="28"/>
@@ -62603,7 +62570,7 @@
         <v>31</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="D112" s="1">
         <v>18</v>
@@ -62746,7 +62713,7 @@
         <v>878376</v>
       </c>
       <c r="AX112" s="5" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="AY112" s="1" t="str">
         <f t="shared" si="29"/>
@@ -62759,7 +62726,7 @@
         <v>878376</v>
       </c>
       <c r="BB112" s="5" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="BC112" s="1" t="str">
         <f t="shared" si="36"/>
@@ -62871,7 +62838,7 @@
         <v>32</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="D113" s="1">
         <v>18</v>
@@ -63079,7 +63046,7 @@
         <v>878259</v>
       </c>
       <c r="BR113" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="BS113" s="1" t="str">
         <f t="shared" si="30"/>
@@ -63092,7 +63059,7 @@
         <v>878043</v>
       </c>
       <c r="BV113" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="BW113" s="1" t="str">
         <f t="shared" si="31"/>
@@ -63105,7 +63072,7 @@
         <v>878258</v>
       </c>
       <c r="BZ113" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="CA113" s="1" t="str">
         <f t="shared" si="33"/>
@@ -63118,7 +63085,7 @@
         <v>878257</v>
       </c>
       <c r="CD113" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="CE113" s="1" t="str">
         <f t="shared" si="34"/>
@@ -63139,7 +63106,7 @@
         <v>40</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="D114" s="1">
         <v>18</v>
@@ -63295,7 +63262,7 @@
         <v>878376</v>
       </c>
       <c r="BB114" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="BC114" s="1" t="str">
         <f t="shared" si="36"/>
@@ -63308,7 +63275,7 @@
         <v>878376</v>
       </c>
       <c r="BF114" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="BG114" s="1" t="str">
         <f t="shared" si="37"/>
@@ -63334,7 +63301,7 @@
         <v>878039</v>
       </c>
       <c r="BN114" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="BO114" s="1" t="str">
         <f t="shared" si="17"/>
@@ -63347,7 +63314,7 @@
         <v>878259</v>
       </c>
       <c r="BR114" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="BS114" s="1" t="str">
         <f t="shared" si="30"/>
@@ -63360,7 +63327,7 @@
         <v>878043</v>
       </c>
       <c r="BV114" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="BW114" s="1" t="str">
         <f t="shared" si="31"/>
@@ -63373,7 +63340,7 @@
         <v>878258</v>
       </c>
       <c r="BZ114" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="CA114" s="1" t="str">
         <f t="shared" si="33"/>
@@ -63386,7 +63353,7 @@
         <v>878257</v>
       </c>
       <c r="CD114" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="CE114" s="1" t="str">
         <f t="shared" si="34"/>
@@ -63407,7 +63374,7 @@
         <v>551</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="D115" s="1">
         <v>18</v>
@@ -63446,7 +63413,7 @@
         <v>878083</v>
       </c>
       <c r="R115" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="S115" s="1" t="str">
         <f t="shared" si="21"/>
@@ -63550,7 +63517,7 @@
         <v>878258</v>
       </c>
       <c r="AX115" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="AY115" s="1" t="str">
         <f t="shared" si="29"/>
@@ -63563,7 +63530,7 @@
         <v>878257</v>
       </c>
       <c r="BB115" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="BC115" s="1" t="str">
         <f t="shared" si="36"/>
@@ -63576,7 +63543,7 @@
         <v>878038</v>
       </c>
       <c r="BF115" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="BG115" s="1" t="str">
         <f t="shared" si="37"/>
@@ -63589,7 +63556,7 @@
         <v>878154</v>
       </c>
       <c r="BJ115" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="BK115" s="1" t="str">
         <f t="shared" si="16"/>
@@ -63602,7 +63569,7 @@
         <v>878039</v>
       </c>
       <c r="BN115" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="BO115" s="1" t="str">
         <f t="shared" si="17"/>
@@ -63615,7 +63582,7 @@
         <v>878259</v>
       </c>
       <c r="BR115" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="BS115" s="1" t="str">
         <f t="shared" si="30"/>
@@ -63628,7 +63595,7 @@
         <v>878043</v>
       </c>
       <c r="BV115" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="BW115" s="1" t="str">
         <f t="shared" si="31"/>
@@ -63641,7 +63608,7 @@
         <v>878258</v>
       </c>
       <c r="BZ115" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="CA115" s="1" t="str">
         <f t="shared" si="33"/>
@@ -63654,7 +63621,7 @@
         <v>878257</v>
       </c>
       <c r="CD115" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="CE115" s="1" t="str">
         <f t="shared" si="34"/>
@@ -63943,7 +63910,7 @@
         <v>41</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="D117" s="1">
         <v>18</v>
@@ -63995,7 +63962,7 @@
         <v>878083</v>
       </c>
       <c r="V117" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="W117" s="1" t="str">
         <f t="shared" si="22"/>
@@ -64021,7 +63988,7 @@
         <v>878083</v>
       </c>
       <c r="AD117" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="AE117" s="1" t="str">
         <f t="shared" si="24"/>
@@ -64034,7 +64001,7 @@
         <v>878083</v>
       </c>
       <c r="AH117" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="AI117" s="1" t="str">
         <f t="shared" si="25"/>
@@ -64047,7 +64014,7 @@
         <v>878083</v>
       </c>
       <c r="AL117" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="AM117" s="1" t="str">
         <f t="shared" si="26"/>
@@ -64060,7 +64027,7 @@
         <v>878083</v>
       </c>
       <c r="AP117" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="AQ117" s="1" t="str">
         <f t="shared" si="27"/>
@@ -64073,7 +64040,7 @@
         <v>878038</v>
       </c>
       <c r="AT117" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="AU117" s="1" t="str">
         <f t="shared" si="28"/>
@@ -64211,7 +64178,7 @@
         <v>31</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="D118" s="1">
         <v>18</v>
@@ -64354,7 +64321,7 @@
         <v>878258</v>
       </c>
       <c r="AX118" s="5" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="AY118" s="1" t="str">
         <f t="shared" si="29"/>
@@ -64367,7 +64334,7 @@
         <v>878257</v>
       </c>
       <c r="BB118" s="5" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="BC118" s="1" t="str">
         <f t="shared" si="36"/>
@@ -64479,7 +64446,7 @@
         <v>32</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="D119" s="1">
         <v>18</v>
@@ -64687,7 +64654,7 @@
         <v>878259</v>
       </c>
       <c r="BR119" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="BS119" s="1" t="str">
         <f t="shared" si="30"/>
@@ -64700,7 +64667,7 @@
         <v>878043</v>
       </c>
       <c r="BV119" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="BW119" s="1" t="str">
         <f t="shared" si="31"/>
@@ -64713,7 +64680,7 @@
         <v>878258</v>
       </c>
       <c r="BZ119" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="CA119" s="1" t="str">
         <f t="shared" si="33"/>
@@ -64726,7 +64693,7 @@
         <v>878257</v>
       </c>
       <c r="CD119" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="CE119" s="1" t="str">
         <f t="shared" si="34"/>
@@ -64747,7 +64714,7 @@
         <v>40</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="D120" s="1">
         <v>18</v>
@@ -64903,7 +64870,7 @@
         <v>878257</v>
       </c>
       <c r="BB120" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="BC120" s="1" t="str">
         <f t="shared" si="36"/>
@@ -64916,7 +64883,7 @@
         <v>878038</v>
       </c>
       <c r="BF120" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="BG120" s="1" t="str">
         <f t="shared" si="37"/>
@@ -64942,7 +64909,7 @@
         <v>878039</v>
       </c>
       <c r="BN120" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="BO120" s="1" t="str">
         <f t="shared" si="17"/>
@@ -64955,7 +64922,7 @@
         <v>878259</v>
       </c>
       <c r="BR120" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="BS120" s="1" t="str">
         <f t="shared" si="30"/>
@@ -64968,7 +64935,7 @@
         <v>878043</v>
       </c>
       <c r="BV120" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="BW120" s="1" t="str">
         <f t="shared" si="31"/>
@@ -64981,7 +64948,7 @@
         <v>878258</v>
       </c>
       <c r="BZ120" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="CA120" s="1" t="str">
         <f t="shared" si="33"/>
@@ -64994,7 +64961,7 @@
         <v>878257</v>
       </c>
       <c r="CD120" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="CE120" s="1" t="str">
         <f t="shared" si="34"/>
@@ -65015,7 +64982,7 @@
         <v>551</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="D121" s="1">
         <v>18</v>
@@ -65054,7 +65021,7 @@
         <v>878376</v>
       </c>
       <c r="R121" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="S121" s="1" t="str">
         <f t="shared" si="21"/>
@@ -65158,7 +65125,7 @@
         <v>878258</v>
       </c>
       <c r="AX121" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="AY121" s="1" t="str">
         <f t="shared" si="29"/>
@@ -65171,7 +65138,7 @@
         <v>878257</v>
       </c>
       <c r="BB121" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="BC121" s="1" t="str">
         <f t="shared" si="36"/>
@@ -65184,7 +65151,7 @@
         <v>878038</v>
       </c>
       <c r="BF121" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="BG121" s="1" t="str">
         <f t="shared" si="37"/>
@@ -65197,7 +65164,7 @@
         <v>878154</v>
       </c>
       <c r="BJ121" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="BK121" s="1" t="str">
         <f t="shared" si="16"/>
@@ -65210,7 +65177,7 @@
         <v>878039</v>
       </c>
       <c r="BN121" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="BO121" s="1" t="str">
         <f t="shared" si="17"/>
@@ -65223,7 +65190,7 @@
         <v>878259</v>
       </c>
       <c r="BR121" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="BS121" s="1" t="str">
         <f t="shared" si="30"/>
@@ -65236,7 +65203,7 @@
         <v>878043</v>
       </c>
       <c r="BV121" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="BW121" s="1" t="str">
         <f t="shared" si="31"/>
@@ -65249,7 +65216,7 @@
         <v>878258</v>
       </c>
       <c r="BZ121" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="CA121" s="1" t="str">
         <f t="shared" si="33"/>
@@ -65262,7 +65229,7 @@
         <v>878257</v>
       </c>
       <c r="CD121" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="CE121" s="1" t="str">
         <f t="shared" si="34"/>
@@ -65551,7 +65518,7 @@
         <v>41</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="D123" s="1">
         <v>18</v>
@@ -65603,7 +65570,7 @@
         <v>878376</v>
       </c>
       <c r="V123" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="W123" s="1" t="str">
         <f t="shared" si="22"/>
@@ -65629,7 +65596,7 @@
         <v>878083</v>
       </c>
       <c r="AD123" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="AE123" s="1" t="str">
         <f t="shared" si="24"/>
@@ -65642,7 +65609,7 @@
         <v>878083</v>
       </c>
       <c r="AH123" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="AI123" s="1" t="str">
         <f t="shared" si="25"/>
@@ -65655,7 +65622,7 @@
         <v>878083</v>
       </c>
       <c r="AL123" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="AM123" s="1" t="str">
         <f t="shared" si="26"/>
@@ -65668,7 +65635,7 @@
         <v>878083</v>
       </c>
       <c r="AP123" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="AQ123" s="1" t="str">
         <f t="shared" si="27"/>
@@ -65681,7 +65648,7 @@
         <v>878038</v>
       </c>
       <c r="AT123" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="AU123" s="1" t="str">
         <f t="shared" si="28"/>
@@ -65819,7 +65786,7 @@
         <v>41</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="D124" s="1">
         <v>18</v>
@@ -65871,7 +65838,7 @@
         <v>878376</v>
       </c>
       <c r="V124" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="W124" s="1" t="str">
         <f t="shared" si="22"/>
@@ -65897,7 +65864,7 @@
         <v>878083</v>
       </c>
       <c r="AD124" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="AE124" s="1" t="str">
         <f t="shared" si="24"/>
@@ -65910,7 +65877,7 @@
         <v>878083</v>
       </c>
       <c r="AH124" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="AI124" s="1" t="str">
         <f t="shared" si="25"/>
@@ -65923,7 +65890,7 @@
         <v>878083</v>
       </c>
       <c r="AL124" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="AM124" s="1" t="str">
         <f t="shared" si="26"/>
@@ -65936,7 +65903,7 @@
         <v>878083</v>
       </c>
       <c r="AP124" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="AQ124" s="1" t="str">
         <f t="shared" si="27"/>
@@ -65949,7 +65916,7 @@
         <v>878038</v>
       </c>
       <c r="AT124" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="AU124" s="1" t="str">
         <f t="shared" si="28"/>
@@ -68825,7 +68792,7 @@
         <v>143</v>
       </c>
       <c r="L11" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="M11" t="s">
         <v>144</v>
@@ -68890,7 +68857,7 @@
         <v>157</v>
       </c>
       <c r="P12" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="Q12" t="s">
         <v>174</v>
@@ -68902,7 +68869,7 @@
         <v>185</v>
       </c>
       <c r="T12" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -68949,25 +68916,25 @@
         <v>54</v>
       </c>
       <c r="P13" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="Q13" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="R13" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="S13" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="T13" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="U13" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="V13" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -69020,19 +68987,19 @@
         <v>170</v>
       </c>
       <c r="R14" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="S14" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="T14" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="U14" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="V14" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="13" customFormat="1">
@@ -69079,10 +69046,10 @@
         <v>149</v>
       </c>
       <c r="P15" s="13" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="R15" s="13" t="s">
         <v>167</v>
@@ -69165,16 +69132,16 @@
         <v>181</v>
       </c>
       <c r="U16" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="V16" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="W16" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="X16" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -69224,28 +69191,28 @@
         <v>155</v>
       </c>
       <c r="Q17" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="R17" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="S17" t="s">
         <v>181</v>
       </c>
       <c r="T17" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="U17" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="V17" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="W17" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="X17" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -69268,7 +69235,7 @@
         <v>150</v>
       </c>
       <c r="H18" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="I18" t="s">
         <v>98</v>
@@ -69292,31 +69259,31 @@
         <v>150</v>
       </c>
       <c r="P18" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>647</v>
+      </c>
+      <c r="R18" t="s">
+        <v>648</v>
+      </c>
+      <c r="S18" t="s">
+        <v>649</v>
+      </c>
+      <c r="T18" t="s">
+        <v>650</v>
+      </c>
+      <c r="U18" t="s">
+        <v>651</v>
+      </c>
+      <c r="V18" t="s">
+        <v>652</v>
+      </c>
+      <c r="W18" t="s">
+        <v>653</v>
+      </c>
+      <c r="X18" t="s">
         <v>654</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>655</v>
-      </c>
-      <c r="R18" t="s">
-        <v>656</v>
-      </c>
-      <c r="S18" t="s">
-        <v>657</v>
-      </c>
-      <c r="T18" t="s">
-        <v>658</v>
-      </c>
-      <c r="U18" t="s">
-        <v>659</v>
-      </c>
-      <c r="V18" t="s">
-        <v>660</v>
-      </c>
-      <c r="W18" t="s">
-        <v>661</v>
-      </c>
-      <c r="X18" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -69413,25 +69380,25 @@
         <v>128</v>
       </c>
       <c r="I20" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="J20" t="s">
         <v>140</v>
       </c>
       <c r="K20" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="L20" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="M20" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="N20" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="O20" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="P20" t="s">
         <v>113</v>

--- a/Excel文件/xiakeqian/战斗设置表.xlsx
+++ b/Excel文件/xiakeqian/战斗设置表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29005"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D79332-FD71-4DC7-AC45-FEBA09AB565E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F290EEA-27C4-40EA-BF8C-519C48CFACF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2405,9 +2405,6 @@
     <t>(0,878008,134)*(0,878008,66)*(-1,878094,139)*(-1,878094,264)*(-1,100145,71)*(-1,100145,144)*(-1,600065,246)*(-1,878037,294)</t>
   </si>
   <si>
-    <t>(0,878092,59)*(0,878092,66)*(-1,878092,67)*(-1,878123,68)*(-1,878123,69)*(-1,878123,60)*(-1,878091,61)*(-1,878184,62)</t>
-  </si>
-  <si>
     <t>(0,878133,34)*(0,878133,35)*(-1,200050,36)*(-1,200050,37)*(-1,200051,42)*(-1,200051,43)*(-1,878132,45)*(-1,878136,46)</t>
   </si>
   <si>
@@ -2766,6 +2763,9 @@
   </si>
   <si>
     <t>(0,410212,110)*(0,410211,80)*(0,410210,109)*(0,410209,172)*(-1,410208,204)*(-1,410207,171)*(-1,410206,179)*(-1,410205,149)*(-1,410204,117)*(-1,410203,154)*(-1,410202,152)*(-1,410201,121)*(-1,410200,183)*(-1,410199,215)*(-1,410198,91)*(-1,410197,60)*(-1,410196,92)*(-1,410192,216)</t>
+  </si>
+  <si>
+    <t>(0,878092,59)*(0,878123,66)*(-1,878092,67)*(-1,878092,68)*(-1,878123,69)*(-1,878123,60)*(-1,878091,61)*(-1,878184,62)</t>
   </si>
 </sst>
 </file>
@@ -3816,8 +3816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D124"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4027,7 +4027,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>727</v>
+        <v>847</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>24</v>
@@ -4089,7 +4089,7 @@
         <v>44</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>24</v>
@@ -4151,7 +4151,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>24</v>
@@ -4213,7 +4213,7 @@
         <v>44</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>24</v>
@@ -4275,7 +4275,7 @@
         <v>44</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>24</v>
@@ -4337,7 +4337,7 @@
         <v>44</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>24</v>
@@ -4399,7 +4399,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>24</v>
@@ -4461,7 +4461,7 @@
         <v>44</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>24</v>
@@ -4523,7 +4523,7 @@
         <v>44</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>24</v>
@@ -4585,7 +4585,7 @@
         <v>44</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>24</v>
@@ -4647,7 +4647,7 @@
         <v>44</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>24</v>
@@ -4709,7 +4709,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>24</v>
@@ -4771,7 +4771,7 @@
         <v>44</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>24</v>
@@ -4833,7 +4833,7 @@
         <v>44</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>24</v>
@@ -4895,7 +4895,7 @@
         <v>44</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>24</v>
@@ -4957,7 +4957,7 @@
         <v>44</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>24</v>
@@ -5019,7 +5019,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>24</v>
@@ -5081,7 +5081,7 @@
         <v>44</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>24</v>
@@ -5143,7 +5143,7 @@
         <v>44</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>24</v>
@@ -5205,7 +5205,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>24</v>
@@ -5267,7 +5267,7 @@
         <v>44</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>24</v>
@@ -5329,7 +5329,7 @@
         <v>44</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>24</v>
@@ -5391,7 +5391,7 @@
         <v>44</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>24</v>
@@ -5453,7 +5453,7 @@
         <v>44</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>24</v>
@@ -5515,7 +5515,7 @@
         <v>44</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>24</v>
@@ -5577,7 +5577,7 @@
         <v>44</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>24</v>
@@ -5639,7 +5639,7 @@
         <v>44</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>24</v>
@@ -5701,7 +5701,7 @@
         <v>44</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>24</v>
@@ -5763,7 +5763,7 @@
         <v>44</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>24</v>
@@ -5825,7 +5825,7 @@
         <v>44</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>24</v>
@@ -5887,7 +5887,7 @@
         <v>44</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>24</v>
@@ -5949,7 +5949,7 @@
         <v>44</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>24</v>
@@ -6011,7 +6011,7 @@
         <v>44</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>24</v>
@@ -6073,7 +6073,7 @@
         <v>44</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>24</v>
@@ -6135,7 +6135,7 @@
         <v>44</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>24</v>
@@ -6197,7 +6197,7 @@
         <v>44</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>24</v>
@@ -6259,7 +6259,7 @@
         <v>44</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>24</v>
@@ -6321,7 +6321,7 @@
         <v>44</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>24</v>
@@ -6383,7 +6383,7 @@
         <v>44</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>24</v>
@@ -6445,7 +6445,7 @@
         <v>44</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>24</v>
@@ -6507,7 +6507,7 @@
         <v>44</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>24</v>
@@ -6569,7 +6569,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>24</v>
@@ -6631,7 +6631,7 @@
         <v>44</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>24</v>
@@ -6693,7 +6693,7 @@
         <v>44</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>24</v>
@@ -6755,7 +6755,7 @@
         <v>44</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>24</v>
@@ -6817,7 +6817,7 @@
         <v>44</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>24</v>
@@ -6879,7 +6879,7 @@
         <v>44</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>24</v>
@@ -6941,7 +6941,7 @@
         <v>44</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>24</v>
@@ -7003,7 +7003,7 @@
         <v>44</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>24</v>
@@ -7065,7 +7065,7 @@
         <v>44</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>24</v>
@@ -7127,7 +7127,7 @@
         <v>44</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>24</v>
@@ -7189,7 +7189,7 @@
         <v>44</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>24</v>
@@ -7251,7 +7251,7 @@
         <v>44</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>24</v>
@@ -7313,7 +7313,7 @@
         <v>44</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>24</v>
@@ -7375,7 +7375,7 @@
         <v>44</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>24</v>
@@ -7437,7 +7437,7 @@
         <v>44</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>24</v>
@@ -7499,7 +7499,7 @@
         <v>44</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>24</v>
@@ -7561,7 +7561,7 @@
         <v>44</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>24</v>
@@ -7623,7 +7623,7 @@
         <v>44</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>24</v>
@@ -7685,7 +7685,7 @@
         <v>44</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>24</v>
@@ -7747,7 +7747,7 @@
         <v>44</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>24</v>
@@ -7809,7 +7809,7 @@
         <v>44</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>24</v>
@@ -7871,7 +7871,7 @@
         <v>44</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>24</v>
@@ -7933,7 +7933,7 @@
         <v>44</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>24</v>
@@ -7995,7 +7995,7 @@
         <v>44</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>24</v>
@@ -8057,7 +8057,7 @@
         <v>44</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>24</v>
@@ -8119,7 +8119,7 @@
         <v>44</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>24</v>
@@ -8181,7 +8181,7 @@
         <v>44</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>24</v>
@@ -8243,7 +8243,7 @@
         <v>44</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>24</v>
@@ -8305,7 +8305,7 @@
         <v>44</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>24</v>
@@ -8367,7 +8367,7 @@
         <v>44</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>24</v>
@@ -8429,7 +8429,7 @@
         <v>44</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>24</v>
@@ -8491,7 +8491,7 @@
         <v>44</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>24</v>
@@ -8553,7 +8553,7 @@
         <v>44</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>24</v>
@@ -8615,7 +8615,7 @@
         <v>44</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>24</v>
@@ -8677,7 +8677,7 @@
         <v>44</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>24</v>
@@ -8739,7 +8739,7 @@
         <v>44</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>24</v>
@@ -8801,7 +8801,7 @@
         <v>44</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>24</v>
@@ -8863,7 +8863,7 @@
         <v>44</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>24</v>
@@ -8925,7 +8925,7 @@
         <v>44</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>24</v>
@@ -8987,7 +8987,7 @@
         <v>44</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>24</v>
@@ -9049,7 +9049,7 @@
         <v>44</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>24</v>
@@ -9111,7 +9111,7 @@
         <v>44</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>24</v>
@@ -9173,7 +9173,7 @@
         <v>44</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>24</v>
@@ -9235,7 +9235,7 @@
         <v>44</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>24</v>
@@ -9297,7 +9297,7 @@
         <v>44</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>24</v>
@@ -9359,7 +9359,7 @@
         <v>44</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>24</v>
@@ -9421,7 +9421,7 @@
         <v>44</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>24</v>
@@ -9483,7 +9483,7 @@
         <v>44</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E92" s="10" t="s">
         <v>24</v>
@@ -9545,7 +9545,7 @@
         <v>44</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>24</v>
@@ -9607,7 +9607,7 @@
         <v>44</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>24</v>
@@ -9669,7 +9669,7 @@
         <v>44</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E95" s="10" t="s">
         <v>24</v>
@@ -9731,7 +9731,7 @@
         <v>44</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E96" s="10" t="s">
         <v>24</v>
@@ -9793,7 +9793,7 @@
         <v>44</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E97" s="10" t="s">
         <v>24</v>
@@ -9855,7 +9855,7 @@
         <v>44</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E98" s="10" t="s">
         <v>24</v>
@@ -9917,7 +9917,7 @@
         <v>44</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E99" s="10" t="s">
         <v>24</v>
@@ -9979,7 +9979,7 @@
         <v>44</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E100" s="10" t="s">
         <v>24</v>
@@ -10041,7 +10041,7 @@
         <v>44</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E101" s="10" t="s">
         <v>24</v>
@@ -10103,7 +10103,7 @@
         <v>44</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E102" s="10" t="s">
         <v>24</v>
@@ -10165,7 +10165,7 @@
         <v>44</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E103" s="10" t="s">
         <v>24</v>
@@ -10227,7 +10227,7 @@
         <v>44</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E104" s="10" t="s">
         <v>24</v>
@@ -10289,7 +10289,7 @@
         <v>44</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E105" s="10" t="s">
         <v>24</v>
@@ -10351,7 +10351,7 @@
         <v>44</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E106" s="10" t="s">
         <v>24</v>
@@ -10413,7 +10413,7 @@
         <v>44</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E107" s="10" t="s">
         <v>24</v>
@@ -10475,7 +10475,7 @@
         <v>44</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E108" s="10" t="s">
         <v>24</v>
@@ -10537,7 +10537,7 @@
         <v>44</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E109" s="10" t="s">
         <v>24</v>
@@ -10599,7 +10599,7 @@
         <v>44</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E110" s="10" t="s">
         <v>24</v>
@@ -10661,7 +10661,7 @@
         <v>44</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E111" s="10" t="s">
         <v>24</v>
@@ -10723,7 +10723,7 @@
         <v>44</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E112" s="10" t="s">
         <v>24</v>
@@ -10785,7 +10785,7 @@
         <v>44</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E113" s="10" t="s">
         <v>24</v>
@@ -10847,7 +10847,7 @@
         <v>44</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E114" s="10" t="s">
         <v>24</v>
@@ -10909,7 +10909,7 @@
         <v>44</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E115" s="10" t="s">
         <v>24</v>
@@ -10971,7 +10971,7 @@
         <v>44</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E116" s="10" t="s">
         <v>24</v>
@@ -11033,7 +11033,7 @@
         <v>44</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E117" s="10" t="s">
         <v>24</v>
@@ -11095,7 +11095,7 @@
         <v>44</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E118" s="10" t="s">
         <v>24</v>
@@ -11157,7 +11157,7 @@
         <v>44</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E119" s="10" t="s">
         <v>24</v>
@@ -11219,7 +11219,7 @@
         <v>44</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E120" s="10" t="s">
         <v>24</v>
@@ -11281,7 +11281,7 @@
         <v>44</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E121" s="10" t="s">
         <v>24</v>
@@ -11343,7 +11343,7 @@
         <v>44</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E122" s="10" t="s">
         <v>24</v>
@@ -11405,7 +11405,7 @@
         <v>44</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E123" s="10" t="s">
         <v>24</v>
@@ -11467,7 +11467,7 @@
         <v>44</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E124" s="10" t="s">
         <v>24</v>
@@ -11532,7 +11532,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C124"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11728,7 +11728,7 @@
         <v>400</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>727</v>
+        <v>847</v>
       </c>
       <c r="D4" s="1">
         <v>8</v>
@@ -11744,7 +11744,7 @@
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" ref="I4:I10" si="0">L4&amp;","&amp;M4&amp;","&amp;N4&amp;"*"&amp;P4&amp;","&amp;Q4&amp;","&amp;R4&amp;"*"&amp;T4&amp;","&amp;U4&amp;","&amp;V4&amp;"*"&amp;X4&amp;","&amp;Y4&amp;","&amp;Z4&amp;"*"&amp;AB4&amp;","&amp;AC4&amp;","&amp;AD4&amp;"*"&amp;AF4&amp;","&amp;AG4&amp;","&amp;AH4&amp;"*"&amp;AJ4&amp;","&amp;AK4&amp;","&amp;AL4&amp;"*"&amp;AN4&amp;","&amp;AO4&amp;","&amp;AP4</f>
-        <v>(0,878092,59)*(0,878092,66)*(-1,878092,67)*(-1,878123,68)*(-1,878123,69)*(-1,878123,60)*(-1,878091,61)*(-1,878184,62)</v>
+        <v>(0,878092,59)*(0,878123,66)*(-1,878092,67)*(-1,878092,68)*(-1,878123,69)*(-1,878123,60)*(-1,878091,61)*(-1,878184,62)</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>48</v>
@@ -11763,14 +11763,14 @@
         <v>48</v>
       </c>
       <c r="Q4" s="2">
-        <v>878092</v>
+        <v>878123</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>453</v>
       </c>
       <c r="S4" s="1" t="str">
         <f t="shared" ref="S4:S67" si="2">VLOOKUP(Q4,$CG$2:$CH$424,2,FALSE)</f>
-        <v>海鲨帮众</v>
+        <v>长虹镖师</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>51</v>
@@ -11789,14 +11789,14 @@
         <v>51</v>
       </c>
       <c r="Y4" s="2">
-        <v>878123</v>
+        <v>878092</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>454</v>
       </c>
       <c r="AA4" s="1" t="str">
         <f t="shared" ref="AA4:AA67" si="4">VLOOKUP(Y4,$CG$2:$CH$424,2,FALSE)</f>
-        <v>长虹镖师</v>
+        <v>海鲨帮众</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>51</v>
@@ -11865,7 +11865,7 @@
         <v>398</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D5" s="1">
         <v>8</v>
@@ -12002,7 +12002,7 @@
         <v>402</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D6" s="1">
         <v>8</v>
@@ -12139,7 +12139,7 @@
         <v>400</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D7" s="1">
         <v>8</v>
@@ -12276,7 +12276,7 @@
         <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D8" s="1">
         <v>8</v>
@@ -12413,7 +12413,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
@@ -12550,7 +12550,7 @@
         <v>400</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D10" s="1">
         <v>8</v>
@@ -12687,7 +12687,7 @@
         <v>398</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D11" s="1">
         <v>8</v>
@@ -12824,7 +12824,7 @@
         <v>402</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D12" s="1">
         <v>8</v>
@@ -12961,7 +12961,7 @@
         <v>400</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D13" s="1">
         <v>8</v>
@@ -13098,7 +13098,7 @@
         <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D14" s="1">
         <v>8</v>
@@ -13235,7 +13235,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D15" s="1">
         <v>8</v>
@@ -13372,7 +13372,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D16" s="2">
         <v>10</v>
@@ -13536,7 +13536,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D17" s="1">
         <v>10</v>
@@ -13700,7 +13700,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D18" s="1">
         <v>10</v>
@@ -13863,7 +13863,7 @@
         <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D19" s="1">
         <v>10</v>
@@ -14026,7 +14026,7 @@
         <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D20" s="1">
         <v>10</v>
@@ -14189,7 +14189,7 @@
         <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D21" s="1">
         <v>10</v>
@@ -14352,7 +14352,7 @@
         <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D22" s="1">
         <v>10</v>
@@ -14515,7 +14515,7 @@
         <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D23" s="1">
         <v>10</v>
@@ -14678,7 +14678,7 @@
         <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D24" s="1">
         <v>10</v>
@@ -14841,7 +14841,7 @@
         <v>397</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D25" s="1">
         <v>10</v>
@@ -15004,7 +15004,7 @@
         <v>37</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D26" s="1">
         <v>10</v>
@@ -15167,7 +15167,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D27" s="1">
         <v>10</v>
@@ -15330,7 +15330,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D28" s="1">
         <v>10</v>
@@ -15493,7 +15493,7 @@
         <v>38</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D29" s="1">
         <v>10</v>
@@ -15656,7 +15656,7 @@
         <v>42</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D30" s="1">
         <v>10</v>
@@ -15819,7 +15819,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D31" s="1">
         <v>10</v>
@@ -15982,7 +15982,7 @@
         <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D32" s="1">
         <v>10</v>
@@ -16145,7 +16145,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D33" s="1">
         <v>10</v>
@@ -16308,7 +16308,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D34" s="1">
         <v>10</v>
@@ -16471,7 +16471,7 @@
         <v>40</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D35" s="1">
         <v>10</v>
@@ -16634,7 +16634,7 @@
         <v>397</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D36" s="1">
         <v>10</v>
@@ -16797,7 +16797,7 @@
         <v>37</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D37" s="1">
         <v>10</v>
@@ -16960,7 +16960,7 @@
         <v>38</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D38" s="2">
         <v>12</v>
@@ -17150,7 +17150,7 @@
         <v>42</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D39" s="1">
         <v>12</v>
@@ -17339,7 +17339,7 @@
         <v>34</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D40" s="1">
         <v>12</v>
@@ -17528,7 +17528,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D41" s="1">
         <v>12</v>
@@ -17717,7 +17717,7 @@
         <v>31</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D42" s="1">
         <v>12</v>
@@ -17906,7 +17906,7 @@
         <v>32</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D43" s="1">
         <v>12</v>
@@ -18095,7 +18095,7 @@
         <v>40</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D44" s="1">
         <v>12</v>
@@ -18284,7 +18284,7 @@
         <v>397</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D45" s="1">
         <v>12</v>
@@ -18473,7 +18473,7 @@
         <v>37</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D46" s="1">
         <v>12</v>
@@ -18663,7 +18663,7 @@
         <v>41</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D47" s="1">
         <v>12</v>
@@ -18852,7 +18852,7 @@
         <v>38</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D48" s="5">
         <v>12</v>
@@ -19041,7 +19041,7 @@
         <v>42</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D49" s="1">
         <v>12</v>
@@ -19230,7 +19230,7 @@
         <v>34</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D50" s="1">
         <v>12</v>
@@ -19419,7 +19419,7 @@
         <v>36</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D51" s="1">
         <v>12</v>
@@ -19608,7 +19608,7 @@
         <v>31</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D52" s="1">
         <v>12</v>
@@ -19797,7 +19797,7 @@
         <v>32</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D53" s="1">
         <v>12</v>
@@ -19986,7 +19986,7 @@
         <v>40</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D54" s="1">
         <v>12</v>
@@ -20175,7 +20175,7 @@
         <v>397</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D55" s="1">
         <v>12</v>
@@ -20364,7 +20364,7 @@
         <v>37</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D56" s="1">
         <v>12</v>
@@ -20553,7 +20553,7 @@
         <v>41</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D57" s="1">
         <v>12</v>
@@ -20742,7 +20742,7 @@
         <v>41</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D58" s="1">
         <v>12</v>
@@ -20931,7 +20931,7 @@
         <v>41</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D59" s="1">
         <v>12</v>
@@ -21120,7 +21120,7 @@
         <v>42</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D60" s="2">
         <v>14</v>
@@ -21336,7 +21336,7 @@
         <v>34</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D61" s="1">
         <v>14</v>
@@ -21551,7 +21551,7 @@
         <v>36</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D62" s="1">
         <v>14</v>
@@ -21766,7 +21766,7 @@
         <v>31</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D63" s="1">
         <v>14</v>
@@ -21981,7 +21981,7 @@
         <v>32</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D64" s="1">
         <v>14</v>
@@ -22196,7 +22196,7 @@
         <v>40</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D65" s="1">
         <v>14</v>
@@ -22411,7 +22411,7 @@
         <v>397</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D66" s="1">
         <v>14</v>
@@ -22626,7 +22626,7 @@
         <v>37</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D67" s="1">
         <v>14</v>
@@ -22841,7 +22841,7 @@
         <v>41</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D68" s="1">
         <v>14</v>
@@ -23056,7 +23056,7 @@
         <v>42</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D69" s="1">
         <v>14</v>
@@ -23271,7 +23271,7 @@
         <v>34</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D70" s="1">
         <v>14</v>
@@ -23486,7 +23486,7 @@
         <v>36</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D71" s="1">
         <v>14</v>
@@ -23701,7 +23701,7 @@
         <v>31</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D72" s="1">
         <v>14</v>
@@ -23916,7 +23916,7 @@
         <v>32</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D73" s="1">
         <v>14</v>
@@ -24131,7 +24131,7 @@
         <v>40</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D74" s="1">
         <v>14</v>
@@ -24346,7 +24346,7 @@
         <v>397</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D75" s="1">
         <v>14</v>
@@ -24561,7 +24561,7 @@
         <v>37</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D76" s="1">
         <v>14</v>
@@ -24776,7 +24776,7 @@
         <v>41</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D77" s="1">
         <v>14</v>
@@ -24991,7 +24991,7 @@
         <v>41</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D78" s="1">
         <v>14</v>
@@ -25206,7 +25206,7 @@
         <v>41</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D79" s="1">
         <v>14</v>
@@ -25421,7 +25421,7 @@
         <v>34</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D80" s="2">
         <v>16</v>
@@ -25662,7 +25662,7 @@
         <v>36</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D81" s="1">
         <v>16</v>
@@ -25903,7 +25903,7 @@
         <v>31</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D82" s="1">
         <v>16</v>
@@ -26144,7 +26144,7 @@
         <v>32</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D83" s="1">
         <v>16</v>
@@ -26385,7 +26385,7 @@
         <v>40</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D84" s="1">
         <v>16</v>
@@ -26626,7 +26626,7 @@
         <v>397</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D85" s="1">
         <v>16</v>
@@ -26867,7 +26867,7 @@
         <v>37</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D86" s="1">
         <v>16</v>
@@ -27108,7 +27108,7 @@
         <v>41</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D87" s="1">
         <v>16</v>
@@ -27349,7 +27349,7 @@
         <v>34</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D88" s="1">
         <v>16</v>
@@ -27590,7 +27590,7 @@
         <v>36</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D89" s="1">
         <v>16</v>
@@ -27831,7 +27831,7 @@
         <v>31</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D90" s="1">
         <v>16</v>
@@ -28072,7 +28072,7 @@
         <v>32</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D91" s="1">
         <v>16</v>
@@ -28313,7 +28313,7 @@
         <v>40</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D92" s="1">
         <v>16</v>
@@ -28554,7 +28554,7 @@
         <v>397</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D93" s="1">
         <v>16</v>
@@ -28795,7 +28795,7 @@
         <v>37</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D94" s="1">
         <v>16</v>
@@ -29036,7 +29036,7 @@
         <v>41</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D95" s="1">
         <v>16</v>
@@ -29277,7 +29277,7 @@
         <v>34</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D96" s="1">
         <v>16</v>
@@ -29518,7 +29518,7 @@
         <v>36</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D97" s="1">
         <v>16</v>
@@ -29759,7 +29759,7 @@
         <v>31</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D98" s="1">
         <v>16</v>
@@ -30000,7 +30000,7 @@
         <v>32</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D99" s="1">
         <v>16</v>
@@ -30241,7 +30241,7 @@
         <v>31</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D100" s="2">
         <v>18</v>
@@ -30508,7 +30508,7 @@
         <v>32</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D101" s="8">
         <v>18</v>
@@ -30775,7 +30775,7 @@
         <v>40</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D102" s="1">
         <v>18</v>
@@ -31042,7 +31042,7 @@
         <v>397</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D103" s="1">
         <v>18</v>
@@ -31309,7 +31309,7 @@
         <v>37</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D104" s="1">
         <v>18</v>
@@ -31576,7 +31576,7 @@
         <v>41</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D105" s="1">
         <v>18</v>
@@ -31843,7 +31843,7 @@
         <v>31</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D106" s="1">
         <v>18</v>
@@ -32110,7 +32110,7 @@
         <v>32</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D107" s="1">
         <v>18</v>
@@ -32377,7 +32377,7 @@
         <v>40</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D108" s="1">
         <v>18</v>
@@ -32644,7 +32644,7 @@
         <v>397</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D109" s="1">
         <v>18</v>
@@ -32911,7 +32911,7 @@
         <v>37</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D110" s="1">
         <v>18</v>
@@ -33178,7 +33178,7 @@
         <v>41</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D111" s="1">
         <v>18</v>
@@ -33445,7 +33445,7 @@
         <v>31</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D112" s="1">
         <v>18</v>
@@ -33712,7 +33712,7 @@
         <v>32</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D113" s="1">
         <v>18</v>
@@ -33979,7 +33979,7 @@
         <v>40</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D114" s="1">
         <v>18</v>
@@ -34246,7 +34246,7 @@
         <v>397</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D115" s="1">
         <v>18</v>
@@ -34513,7 +34513,7 @@
         <v>37</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D116" s="1">
         <v>18</v>
@@ -34780,7 +34780,7 @@
         <v>41</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D117" s="1">
         <v>18</v>
@@ -35047,7 +35047,7 @@
         <v>31</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D118" s="1">
         <v>18</v>
@@ -35314,7 +35314,7 @@
         <v>32</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D119" s="1">
         <v>18</v>
@@ -35581,7 +35581,7 @@
         <v>40</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D120" s="1">
         <v>18</v>
@@ -35848,7 +35848,7 @@
         <v>397</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D121" s="1">
         <v>18</v>
@@ -36115,7 +36115,7 @@
         <v>37</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D122" s="1">
         <v>18</v>
@@ -36382,7 +36382,7 @@
         <v>41</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D123" s="1">
         <v>18</v>
@@ -36649,7 +36649,7 @@
         <v>41</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D124" s="1">
         <v>18</v>
